--- a/ChecklistSeiscomp/static/ChecklistSeiscomp/template.xlsx
+++ b/ChecklistSeiscomp/static/ChecklistSeiscomp/template.xlsx
@@ -2583,11 +2583,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;✔&quot;;;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;✔&quot;;;"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2729,10 +2729,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2744,9 +2744,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2755,21 +2754,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2806,18 +2790,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2830,21 +2821,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2877,7 +2877,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2889,175 +3057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3557,6 +3557,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3568,6 +3592,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3587,63 +3644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3657,10 +3657,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
@@ -3678,127 +3678,127 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="44">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="41">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3856,7 +3856,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3886,13 +3886,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -3920,26 +3920,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3951,7 +3951,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4362,8 +4362,8 @@
   </sheetPr>
   <dimension ref="A1:AC1140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="W187" sqref="W187:AB191"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="AD203" sqref="AD203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -42542,7 +42542,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.275590551181102" right="0.276" top="0.0930956848030019" bottom="0.551181102362205" header="0" footer="0"/>
-  <pageSetup paperSize="1" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="10000" scale="46" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ChecklistSeiscomp/static/ChecklistSeiscomp/template.xlsx
+++ b/ChecklistSeiscomp/static/ChecklistSeiscomp/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="SHIFT PM" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="851">
   <si>
     <t>KONDISI  STASIUN  SEISCOMP5</t>
   </si>
@@ -22,10 +22,7 @@
     <t>SHIFT  PAGI - MALAM</t>
   </si>
   <si>
-    <t>KELOMPOK : 2</t>
-  </si>
-  <si>
-    <t>Minggu, 19 Februari 2023</t>
+    <t>KELOMPOK :</t>
   </si>
   <si>
     <t>NON GARANSI (402)</t>
@@ -2456,12 +2453,6 @@
   </si>
   <si>
     <t>Namrole, Maluku</t>
-  </si>
-  <si>
-    <t>Fajar</t>
-  </si>
-  <si>
-    <t>AKMAL FIRMANSYAH, S.Tr.Geof.</t>
   </si>
   <si>
     <t>NBPI</t>
@@ -2583,11 +2574,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;✔&quot;;;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="&quot;✔&quot;;;"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2706,9 +2697,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2722,61 +2751,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2790,45 +2765,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2844,7 +2783,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2877,13 +2868,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2895,25 +2922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2925,7 +2934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2937,19 +2946,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2961,55 +2976,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3027,7 +3012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3039,13 +3030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3057,7 +3042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3559,9 +3550,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3596,39 +3622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3646,21 +3639,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
@@ -3675,130 +3666,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="46">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="45">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="47">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="45">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="47">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3856,7 +3847,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3886,13 +3877,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -3920,26 +3911,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3951,7 +3942,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4362,8 +4353,8 @@
   </sheetPr>
   <dimension ref="A1:AC1140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="AD203" sqref="AD203"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M232" sqref="M232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -4421,9 +4412,7 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
-      <c r="AB3" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:29">
@@ -4459,7 +4448,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:29">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4472,7 +4461,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -4494,36 +4483,36 @@
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:28">
       <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
       <c r="H6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="7"/>
       <c r="L6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4531,17 +4520,17 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="12"/>
       <c r="W6" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6" s="30"/>
       <c r="Y6" s="38"/>
       <c r="Z6" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA6" s="30"/>
       <c r="AB6" s="38"/>
@@ -4552,22 +4541,22 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="13"/>
@@ -4582,22 +4571,22 @@
       <c r="U7" s="25"/>
       <c r="V7" s="31"/>
       <c r="W7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="33" t="s">
+      <c r="Y7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="39" t="s">
-        <v>13</v>
-      </c>
       <c r="Z7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="33" t="s">
+      <c r="AB7" s="39" t="s">
         <v>12</v>
-      </c>
-      <c r="AB7" s="39" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:28">
@@ -4605,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -4624,10 +4613,10 @@
         <v>229</v>
       </c>
       <c r="M8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
@@ -4635,7 +4624,7 @@
       <c r="R8" s="28"/>
       <c r="S8" s="34"/>
       <c r="T8" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U8" s="35"/>
       <c r="V8" s="36"/>
@@ -4651,13 +4640,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -4670,10 +4659,10 @@
         <v>230</v>
       </c>
       <c r="M9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
@@ -4681,7 +4670,7 @@
       <c r="R9" s="28"/>
       <c r="S9" s="34"/>
       <c r="T9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U9" s="35"/>
       <c r="V9" s="36"/>
@@ -4697,13 +4686,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -4716,10 +4705,10 @@
         <v>231</v>
       </c>
       <c r="M10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
@@ -4727,7 +4716,7 @@
       <c r="R10" s="28"/>
       <c r="S10" s="34"/>
       <c r="T10" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U10" s="35"/>
       <c r="V10" s="36"/>
@@ -4743,13 +4732,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4762,10 +4751,10 @@
         <v>232</v>
       </c>
       <c r="M11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
@@ -4773,7 +4762,7 @@
       <c r="R11" s="28"/>
       <c r="S11" s="34"/>
       <c r="T11" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U11" s="35"/>
       <c r="V11" s="36"/>
@@ -4789,13 +4778,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -4808,10 +4797,10 @@
         <v>233</v>
       </c>
       <c r="M12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -4819,7 +4808,7 @@
       <c r="R12" s="28"/>
       <c r="S12" s="34"/>
       <c r="T12" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U12" s="35"/>
       <c r="V12" s="36"/>
@@ -4835,13 +4824,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -4854,10 +4843,10 @@
         <v>234</v>
       </c>
       <c r="M13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -4865,7 +4854,7 @@
       <c r="R13" s="28"/>
       <c r="S13" s="34"/>
       <c r="T13" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U13" s="35"/>
       <c r="V13" s="36"/>
@@ -4881,13 +4870,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -4900,10 +4889,10 @@
         <v>235</v>
       </c>
       <c r="M14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
@@ -4911,7 +4900,7 @@
       <c r="R14" s="28"/>
       <c r="S14" s="34"/>
       <c r="T14" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
@@ -4927,13 +4916,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -4946,10 +4935,10 @@
         <v>236</v>
       </c>
       <c r="M15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
@@ -4957,7 +4946,7 @@
       <c r="R15" s="28"/>
       <c r="S15" s="34"/>
       <c r="T15" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U15" s="35"/>
       <c r="V15" s="36"/>
@@ -4973,13 +4962,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -4992,10 +4981,10 @@
         <v>237</v>
       </c>
       <c r="M16" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
@@ -5003,7 +4992,7 @@
       <c r="R16" s="28"/>
       <c r="S16" s="34"/>
       <c r="T16" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U16" s="35"/>
       <c r="V16" s="36"/>
@@ -5019,13 +5008,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -5038,10 +5027,10 @@
         <v>238</v>
       </c>
       <c r="M17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
@@ -5049,7 +5038,7 @@
       <c r="R17" s="28"/>
       <c r="S17" s="34"/>
       <c r="T17" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U17" s="35"/>
       <c r="V17" s="36"/>
@@ -5065,13 +5054,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -5084,10 +5073,10 @@
         <v>239</v>
       </c>
       <c r="M18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
@@ -5095,7 +5084,7 @@
       <c r="R18" s="28"/>
       <c r="S18" s="34"/>
       <c r="T18" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U18" s="35"/>
       <c r="V18" s="36"/>
@@ -5111,13 +5100,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>60</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -5130,10 +5119,10 @@
         <v>240</v>
       </c>
       <c r="M19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
@@ -5141,7 +5130,7 @@
       <c r="R19" s="28"/>
       <c r="S19" s="34"/>
       <c r="T19" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U19" s="35"/>
       <c r="V19" s="36"/>
@@ -5157,13 +5146,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -5176,10 +5165,10 @@
         <v>241</v>
       </c>
       <c r="M20" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -5187,7 +5176,7 @@
       <c r="R20" s="28"/>
       <c r="S20" s="34"/>
       <c r="T20" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U20" s="35"/>
       <c r="V20" s="36"/>
@@ -5203,13 +5192,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="D21" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -5222,10 +5211,10 @@
         <v>242</v>
       </c>
       <c r="M21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
@@ -5233,7 +5222,7 @@
       <c r="R21" s="28"/>
       <c r="S21" s="34"/>
       <c r="T21" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U21" s="35"/>
       <c r="V21" s="36"/>
@@ -5249,13 +5238,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -5268,10 +5257,10 @@
         <v>243</v>
       </c>
       <c r="M22" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
@@ -5279,7 +5268,7 @@
       <c r="R22" s="28"/>
       <c r="S22" s="34"/>
       <c r="T22" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U22" s="35"/>
       <c r="V22" s="36"/>
@@ -5295,13 +5284,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>76</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -5314,10 +5303,10 @@
         <v>244</v>
       </c>
       <c r="M23" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
@@ -5325,7 +5314,7 @@
       <c r="R23" s="28"/>
       <c r="S23" s="34"/>
       <c r="T23" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U23" s="35"/>
       <c r="V23" s="36"/>
@@ -5341,13 +5330,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>80</v>
-      </c>
       <c r="D24" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -5360,10 +5349,10 @@
         <v>245</v>
       </c>
       <c r="M24" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
@@ -5371,7 +5360,7 @@
       <c r="R24" s="28"/>
       <c r="S24" s="34"/>
       <c r="T24" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U24" s="35"/>
       <c r="V24" s="36"/>
@@ -5387,13 +5376,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>84</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -5406,10 +5395,10 @@
         <v>246</v>
       </c>
       <c r="M25" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
@@ -5417,7 +5406,7 @@
       <c r="R25" s="28"/>
       <c r="S25" s="34"/>
       <c r="T25" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U25" s="35"/>
       <c r="V25" s="36"/>
@@ -5433,13 +5422,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -5452,10 +5441,10 @@
         <v>247</v>
       </c>
       <c r="M26" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
@@ -5463,7 +5452,7 @@
       <c r="R26" s="28"/>
       <c r="S26" s="34"/>
       <c r="T26" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U26" s="35"/>
       <c r="V26" s="36"/>
@@ -5479,13 +5468,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -5498,10 +5487,10 @@
         <v>248</v>
       </c>
       <c r="M27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -5509,7 +5498,7 @@
       <c r="R27" s="28"/>
       <c r="S27" s="34"/>
       <c r="T27" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U27" s="35"/>
       <c r="V27" s="36"/>
@@ -5525,13 +5514,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="D28" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -5544,10 +5533,10 @@
         <v>249</v>
       </c>
       <c r="M28" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
@@ -5555,7 +5544,7 @@
       <c r="R28" s="28"/>
       <c r="S28" s="34"/>
       <c r="T28" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U28" s="35"/>
       <c r="V28" s="36"/>
@@ -5571,13 +5560,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="D29" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -5590,10 +5579,10 @@
         <v>250</v>
       </c>
       <c r="M29" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
@@ -5601,7 +5590,7 @@
       <c r="R29" s="28"/>
       <c r="S29" s="34"/>
       <c r="T29" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U29" s="35"/>
       <c r="V29" s="36"/>
@@ -5617,13 +5606,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="D30" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -5636,10 +5625,10 @@
         <v>251</v>
       </c>
       <c r="M30" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
@@ -5647,7 +5636,7 @@
       <c r="R30" s="28"/>
       <c r="S30" s="34"/>
       <c r="T30" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U30" s="35"/>
       <c r="V30" s="36"/>
@@ -5663,13 +5652,13 @@
         <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>108</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -5682,10 +5671,10 @@
         <v>252</v>
       </c>
       <c r="M31" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
@@ -5693,7 +5682,7 @@
       <c r="R31" s="28"/>
       <c r="S31" s="34"/>
       <c r="T31" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U31" s="35"/>
       <c r="V31" s="36"/>
@@ -5709,13 +5698,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="D32" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -5728,10 +5717,10 @@
         <v>253</v>
       </c>
       <c r="M32" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
@@ -5739,7 +5728,7 @@
       <c r="R32" s="28"/>
       <c r="S32" s="34"/>
       <c r="T32" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U32" s="35"/>
       <c r="V32" s="36"/>
@@ -5755,13 +5744,13 @@
         <v>26</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>116</v>
-      </c>
       <c r="D33" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -5774,10 +5763,10 @@
         <v>254</v>
       </c>
       <c r="M33" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
@@ -5785,7 +5774,7 @@
       <c r="R33" s="28"/>
       <c r="S33" s="34"/>
       <c r="T33" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U33" s="35"/>
       <c r="V33" s="36"/>
@@ -5801,13 +5790,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -5820,10 +5809,10 @@
         <v>255</v>
       </c>
       <c r="M34" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
@@ -5831,7 +5820,7 @@
       <c r="R34" s="28"/>
       <c r="S34" s="34"/>
       <c r="T34" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U34" s="35"/>
       <c r="V34" s="36"/>
@@ -5847,13 +5836,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>124</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -5866,10 +5855,10 @@
         <v>256</v>
       </c>
       <c r="M35" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="N35" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
@@ -5877,7 +5866,7 @@
       <c r="R35" s="28"/>
       <c r="S35" s="34"/>
       <c r="T35" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U35" s="35"/>
       <c r="V35" s="36"/>
@@ -5893,13 +5882,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>128</v>
-      </c>
       <c r="D36" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -5912,10 +5901,10 @@
         <v>257</v>
       </c>
       <c r="M36" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="N36" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
@@ -5923,7 +5912,7 @@
       <c r="R36" s="28"/>
       <c r="S36" s="34"/>
       <c r="T36" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U36" s="35"/>
       <c r="V36" s="36"/>
@@ -5939,13 +5928,13 @@
         <v>30</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -5958,10 +5947,10 @@
         <v>258</v>
       </c>
       <c r="M37" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="N37" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
@@ -5969,7 +5958,7 @@
       <c r="R37" s="28"/>
       <c r="S37" s="34"/>
       <c r="T37" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="36"/>
@@ -5985,13 +5974,13 @@
         <v>31</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>136</v>
-      </c>
       <c r="D38" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -6004,10 +5993,10 @@
         <v>259</v>
       </c>
       <c r="M38" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>138</v>
       </c>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
@@ -6015,7 +6004,7 @@
       <c r="R38" s="28"/>
       <c r="S38" s="34"/>
       <c r="T38" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="36"/>
@@ -6031,13 +6020,13 @@
         <v>32</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -6050,10 +6039,10 @@
         <v>260</v>
       </c>
       <c r="M39" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N39" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>142</v>
       </c>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
@@ -6061,7 +6050,7 @@
       <c r="R39" s="28"/>
       <c r="S39" s="34"/>
       <c r="T39" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="36"/>
@@ -6077,13 +6066,13 @@
         <v>33</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -6096,10 +6085,10 @@
         <v>261</v>
       </c>
       <c r="M40" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N40" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
@@ -6107,7 +6096,7 @@
       <c r="R40" s="28"/>
       <c r="S40" s="34"/>
       <c r="T40" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="36"/>
@@ -6123,13 +6112,13 @@
         <v>34</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>148</v>
-      </c>
       <c r="D41" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -6142,10 +6131,10 @@
         <v>262</v>
       </c>
       <c r="M41" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N41" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
@@ -6153,7 +6142,7 @@
       <c r="R41" s="28"/>
       <c r="S41" s="34"/>
       <c r="T41" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="36"/>
@@ -6169,13 +6158,13 @@
         <v>35</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="D42" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -6188,10 +6177,10 @@
         <v>263</v>
       </c>
       <c r="M42" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="N42" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
@@ -6199,7 +6188,7 @@
       <c r="R42" s="28"/>
       <c r="S42" s="34"/>
       <c r="T42" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="36"/>
@@ -6215,13 +6204,13 @@
         <v>36</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="D43" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -6234,10 +6223,10 @@
         <v>264</v>
       </c>
       <c r="M43" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
@@ -6245,7 +6234,7 @@
       <c r="R43" s="28"/>
       <c r="S43" s="34"/>
       <c r="T43" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="36"/>
@@ -6261,13 +6250,13 @@
         <v>37</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="D44" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -6280,10 +6269,10 @@
         <v>265</v>
       </c>
       <c r="M44" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="N44" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="N44" s="19" t="s">
-        <v>162</v>
       </c>
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
@@ -6291,7 +6280,7 @@
       <c r="R44" s="28"/>
       <c r="S44" s="34"/>
       <c r="T44" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="36"/>
@@ -6307,13 +6296,13 @@
         <v>38</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>164</v>
-      </c>
       <c r="D45" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -6326,10 +6315,10 @@
         <v>266</v>
       </c>
       <c r="M45" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="N45" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="N45" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
@@ -6337,7 +6326,7 @@
       <c r="R45" s="28"/>
       <c r="S45" s="34"/>
       <c r="T45" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="36"/>
@@ -6353,13 +6342,13 @@
         <v>39</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="D46" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -6372,10 +6361,10 @@
         <v>267</v>
       </c>
       <c r="M46" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="N46" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
@@ -6383,7 +6372,7 @@
       <c r="R46" s="28"/>
       <c r="S46" s="34"/>
       <c r="T46" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U46" s="35"/>
       <c r="V46" s="36"/>
@@ -6399,13 +6388,13 @@
         <v>40</v>
       </c>
       <c r="B47" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="D47" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -6418,10 +6407,10 @@
         <v>268</v>
       </c>
       <c r="M47" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N47" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="N47" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="O47" s="28"/>
       <c r="P47" s="28"/>
@@ -6429,7 +6418,7 @@
       <c r="R47" s="28"/>
       <c r="S47" s="34"/>
       <c r="T47" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U47" s="35"/>
       <c r="V47" s="36"/>
@@ -6445,13 +6434,13 @@
         <v>41</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="D48" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -6464,10 +6453,10 @@
         <v>269</v>
       </c>
       <c r="M48" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="O48" s="28"/>
       <c r="P48" s="28"/>
@@ -6475,7 +6464,7 @@
       <c r="R48" s="28"/>
       <c r="S48" s="34"/>
       <c r="T48" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U48" s="35"/>
       <c r="V48" s="36"/>
@@ -6491,13 +6480,13 @@
         <v>42</v>
       </c>
       <c r="B49" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>180</v>
-      </c>
       <c r="D49" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
@@ -6510,10 +6499,10 @@
         <v>270</v>
       </c>
       <c r="M49" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="N49" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="N49" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="O49" s="28"/>
       <c r="P49" s="28"/>
@@ -6521,7 +6510,7 @@
       <c r="R49" s="28"/>
       <c r="S49" s="34"/>
       <c r="T49" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U49" s="35"/>
       <c r="V49" s="36"/>
@@ -6537,13 +6526,13 @@
         <v>43</v>
       </c>
       <c r="B50" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="D50" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -6556,10 +6545,10 @@
         <v>271</v>
       </c>
       <c r="M50" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N50" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
@@ -6567,7 +6556,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="34"/>
       <c r="T50" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U50" s="35"/>
       <c r="V50" s="36"/>
@@ -6583,13 +6572,13 @@
         <v>44</v>
       </c>
       <c r="B51" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>188</v>
-      </c>
       <c r="D51" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
@@ -6602,10 +6591,10 @@
         <v>272</v>
       </c>
       <c r="M51" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="N51" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="O51" s="28"/>
       <c r="P51" s="28"/>
@@ -6613,7 +6602,7 @@
       <c r="R51" s="28"/>
       <c r="S51" s="34"/>
       <c r="T51" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U51" s="35"/>
       <c r="V51" s="36"/>
@@ -6629,13 +6618,13 @@
         <v>45</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>192</v>
-      </c>
       <c r="D52" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
@@ -6648,10 +6637,10 @@
         <v>273</v>
       </c>
       <c r="M52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N52" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="N52" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="O52" s="28"/>
       <c r="P52" s="28"/>
@@ -6659,7 +6648,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="34"/>
       <c r="T52" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U52" s="35"/>
       <c r="V52" s="36"/>
@@ -6675,13 +6664,13 @@
         <v>46</v>
       </c>
       <c r="B53" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="D53" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -6694,10 +6683,10 @@
         <v>274</v>
       </c>
       <c r="M53" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="N53" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
@@ -6705,7 +6694,7 @@
       <c r="R53" s="28"/>
       <c r="S53" s="34"/>
       <c r="T53" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U53" s="35"/>
       <c r="V53" s="36"/>
@@ -6721,13 +6710,13 @@
         <v>47</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>200</v>
-      </c>
       <c r="D54" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
@@ -6740,10 +6729,10 @@
         <v>275</v>
       </c>
       <c r="M54" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="N54" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="O54" s="28"/>
       <c r="P54" s="28"/>
@@ -6751,7 +6740,7 @@
       <c r="R54" s="28"/>
       <c r="S54" s="34"/>
       <c r="T54" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U54" s="35"/>
       <c r="V54" s="36"/>
@@ -6767,13 +6756,13 @@
         <v>48</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="D55" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
@@ -6786,10 +6775,10 @@
         <v>276</v>
       </c>
       <c r="M55" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="N55" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="N55" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="O55" s="28"/>
       <c r="P55" s="28"/>
@@ -6797,7 +6786,7 @@
       <c r="R55" s="28"/>
       <c r="S55" s="34"/>
       <c r="T55" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U55" s="35"/>
       <c r="V55" s="36"/>
@@ -6813,13 +6802,13 @@
         <v>49</v>
       </c>
       <c r="B56" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>208</v>
-      </c>
       <c r="D56" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -6832,10 +6821,10 @@
         <v>277</v>
       </c>
       <c r="M56" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N56" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
@@ -6843,7 +6832,7 @@
       <c r="R56" s="28"/>
       <c r="S56" s="34"/>
       <c r="T56" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U56" s="35"/>
       <c r="V56" s="36"/>
@@ -6859,13 +6848,13 @@
         <v>50</v>
       </c>
       <c r="B57" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>212</v>
-      </c>
       <c r="D57" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
@@ -6878,10 +6867,10 @@
         <v>278</v>
       </c>
       <c r="M57" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="N57" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="N57" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="O57" s="28"/>
       <c r="P57" s="28"/>
@@ -6889,7 +6878,7 @@
       <c r="R57" s="28"/>
       <c r="S57" s="34"/>
       <c r="T57" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U57" s="35"/>
       <c r="V57" s="36"/>
@@ -6905,13 +6894,13 @@
         <v>51</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>216</v>
-      </c>
       <c r="D58" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -6924,10 +6913,10 @@
         <v>279</v>
       </c>
       <c r="M58" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="N58" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="N58" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="O58" s="28"/>
       <c r="P58" s="28"/>
@@ -6935,7 +6924,7 @@
       <c r="R58" s="28"/>
       <c r="S58" s="34"/>
       <c r="T58" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U58" s="35"/>
       <c r="V58" s="36"/>
@@ -6951,13 +6940,13 @@
         <v>52</v>
       </c>
       <c r="B59" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>220</v>
-      </c>
       <c r="D59" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
@@ -6970,10 +6959,10 @@
         <v>280</v>
       </c>
       <c r="M59" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="N59" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="N59" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="O59" s="28"/>
       <c r="P59" s="28"/>
@@ -6981,7 +6970,7 @@
       <c r="R59" s="28"/>
       <c r="S59" s="34"/>
       <c r="T59" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U59" s="35"/>
       <c r="V59" s="36"/>
@@ -6997,13 +6986,13 @@
         <v>53</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="D60" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -7016,10 +7005,10 @@
         <v>281</v>
       </c>
       <c r="M60" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N60" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="N60" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="O60" s="28"/>
       <c r="P60" s="28"/>
@@ -7027,7 +7016,7 @@
       <c r="R60" s="28"/>
       <c r="S60" s="34"/>
       <c r="T60" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U60" s="35"/>
       <c r="V60" s="36"/>
@@ -7043,13 +7032,13 @@
         <v>54</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>228</v>
-      </c>
       <c r="D61" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7062,10 +7051,10 @@
         <v>282</v>
       </c>
       <c r="M61" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="N61" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="N61" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="O61" s="28"/>
       <c r="P61" s="28"/>
@@ -7073,7 +7062,7 @@
       <c r="R61" s="28"/>
       <c r="S61" s="34"/>
       <c r="T61" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U61" s="35"/>
       <c r="V61" s="36"/>
@@ -7089,13 +7078,13 @@
         <v>55</v>
       </c>
       <c r="B62" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>232</v>
-      </c>
       <c r="D62" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -7108,10 +7097,10 @@
         <v>283</v>
       </c>
       <c r="M62" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="N62" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="N62" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="O62" s="28"/>
       <c r="P62" s="28"/>
@@ -7119,7 +7108,7 @@
       <c r="R62" s="28"/>
       <c r="S62" s="34"/>
       <c r="T62" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U62" s="35"/>
       <c r="V62" s="36"/>
@@ -7135,13 +7124,13 @@
         <v>56</v>
       </c>
       <c r="B63" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>236</v>
-      </c>
       <c r="D63" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -7154,10 +7143,10 @@
         <v>284</v>
       </c>
       <c r="M63" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="N63" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="N63" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
@@ -7165,7 +7154,7 @@
       <c r="R63" s="28"/>
       <c r="S63" s="34"/>
       <c r="T63" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U63" s="35"/>
       <c r="V63" s="36"/>
@@ -7181,13 +7170,13 @@
         <v>57</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>240</v>
-      </c>
       <c r="D64" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
@@ -7200,10 +7189,10 @@
         <v>285</v>
       </c>
       <c r="M64" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="N64" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="N64" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="O64" s="28"/>
       <c r="P64" s="28"/>
@@ -7211,7 +7200,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="34"/>
       <c r="T64" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U64" s="35"/>
       <c r="V64" s="36"/>
@@ -7227,13 +7216,13 @@
         <v>58</v>
       </c>
       <c r="B65" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>244</v>
-      </c>
       <c r="D65" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -7246,10 +7235,10 @@
         <v>286</v>
       </c>
       <c r="M65" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="N65" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="N65" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
@@ -7257,7 +7246,7 @@
       <c r="R65" s="28"/>
       <c r="S65" s="34"/>
       <c r="T65" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U65" s="35"/>
       <c r="V65" s="36"/>
@@ -7273,13 +7262,13 @@
         <v>59</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="D66" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -7292,10 +7281,10 @@
         <v>287</v>
       </c>
       <c r="M66" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="N66" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="N66" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
@@ -7303,7 +7292,7 @@
       <c r="R66" s="28"/>
       <c r="S66" s="34"/>
       <c r="T66" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U66" s="35"/>
       <c r="V66" s="36"/>
@@ -7319,13 +7308,13 @@
         <v>60</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>252</v>
-      </c>
       <c r="D67" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -7338,10 +7327,10 @@
         <v>288</v>
       </c>
       <c r="M67" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="N67" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="N67" s="19" t="s">
-        <v>254</v>
       </c>
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
@@ -7349,7 +7338,7 @@
       <c r="R67" s="28"/>
       <c r="S67" s="34"/>
       <c r="T67" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U67" s="35"/>
       <c r="V67" s="36"/>
@@ -7365,13 +7354,13 @@
         <v>61</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>256</v>
-      </c>
       <c r="D68" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
@@ -7384,10 +7373,10 @@
         <v>289</v>
       </c>
       <c r="M68" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N68" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="N68" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
@@ -7395,7 +7384,7 @@
       <c r="R68" s="28"/>
       <c r="S68" s="34"/>
       <c r="T68" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U68" s="35"/>
       <c r="V68" s="36"/>
@@ -7411,13 +7400,13 @@
         <v>62</v>
       </c>
       <c r="B69" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>260</v>
-      </c>
       <c r="D69" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -7430,10 +7419,10 @@
         <v>290</v>
       </c>
       <c r="M69" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="N69" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="N69" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
@@ -7441,7 +7430,7 @@
       <c r="R69" s="28"/>
       <c r="S69" s="34"/>
       <c r="T69" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U69" s="35"/>
       <c r="V69" s="36"/>
@@ -7457,13 +7446,13 @@
         <v>63</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>264</v>
-      </c>
       <c r="D70" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
@@ -7476,10 +7465,10 @@
         <v>291</v>
       </c>
       <c r="M70" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="N70" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="O70" s="28"/>
       <c r="P70" s="28"/>
@@ -7487,7 +7476,7 @@
       <c r="R70" s="28"/>
       <c r="S70" s="34"/>
       <c r="T70" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U70" s="35"/>
       <c r="V70" s="36"/>
@@ -7503,13 +7492,13 @@
         <v>64</v>
       </c>
       <c r="B71" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>268</v>
-      </c>
       <c r="D71" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -7522,10 +7511,10 @@
         <v>292</v>
       </c>
       <c r="M71" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="N71" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="N71" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
@@ -7533,7 +7522,7 @@
       <c r="R71" s="28"/>
       <c r="S71" s="34"/>
       <c r="T71" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U71" s="35"/>
       <c r="V71" s="36"/>
@@ -7549,13 +7538,13 @@
         <v>65</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>272</v>
-      </c>
       <c r="D72" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
@@ -7568,10 +7557,10 @@
         <v>293</v>
       </c>
       <c r="M72" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="N72" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="N72" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
@@ -7579,7 +7568,7 @@
       <c r="R72" s="28"/>
       <c r="S72" s="34"/>
       <c r="T72" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U72" s="35"/>
       <c r="V72" s="36"/>
@@ -7595,13 +7584,13 @@
         <v>66</v>
       </c>
       <c r="B73" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>276</v>
-      </c>
       <c r="D73" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
@@ -7614,10 +7603,10 @@
         <v>294</v>
       </c>
       <c r="M73" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="N73" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="N73" s="19" t="s">
-        <v>278</v>
       </c>
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
@@ -7625,7 +7614,7 @@
       <c r="R73" s="28"/>
       <c r="S73" s="34"/>
       <c r="T73" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U73" s="35"/>
       <c r="V73" s="36"/>
@@ -7641,13 +7630,13 @@
         <v>67</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
@@ -7660,10 +7649,10 @@
         <v>295</v>
       </c>
       <c r="M74" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="N74" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="N74" s="19" t="s">
-        <v>282</v>
       </c>
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
@@ -7671,7 +7660,7 @@
       <c r="R74" s="28"/>
       <c r="S74" s="34"/>
       <c r="T74" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U74" s="35"/>
       <c r="V74" s="36"/>
@@ -7687,13 +7676,13 @@
         <v>68</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>284</v>
-      </c>
       <c r="D75" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
@@ -7706,10 +7695,10 @@
         <v>296</v>
       </c>
       <c r="M75" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="N75" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="N75" s="19" t="s">
-        <v>286</v>
       </c>
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
@@ -7717,7 +7706,7 @@
       <c r="R75" s="28"/>
       <c r="S75" s="34"/>
       <c r="T75" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U75" s="35"/>
       <c r="V75" s="36"/>
@@ -7733,13 +7722,13 @@
         <v>69</v>
       </c>
       <c r="B76" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>288</v>
-      </c>
       <c r="D76" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
@@ -7752,10 +7741,10 @@
         <v>297</v>
       </c>
       <c r="M76" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="N76" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="N76" s="19" t="s">
-        <v>290</v>
       </c>
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
@@ -7763,7 +7752,7 @@
       <c r="R76" s="28"/>
       <c r="S76" s="34"/>
       <c r="T76" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U76" s="35"/>
       <c r="V76" s="36"/>
@@ -7779,13 +7768,13 @@
         <v>70</v>
       </c>
       <c r="B77" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>292</v>
-      </c>
       <c r="D77" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
@@ -7798,10 +7787,10 @@
         <v>298</v>
       </c>
       <c r="M77" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="N77" s="19" t="s">
         <v>293</v>
-      </c>
-      <c r="N77" s="19" t="s">
-        <v>294</v>
       </c>
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
@@ -7809,7 +7798,7 @@
       <c r="R77" s="28"/>
       <c r="S77" s="34"/>
       <c r="T77" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U77" s="35"/>
       <c r="V77" s="36"/>
@@ -7825,13 +7814,13 @@
         <v>71</v>
       </c>
       <c r="B78" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>296</v>
-      </c>
       <c r="D78" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
@@ -7844,10 +7833,10 @@
         <v>299</v>
       </c>
       <c r="M78" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="N78" s="19" t="s">
         <v>297</v>
-      </c>
-      <c r="N78" s="19" t="s">
-        <v>298</v>
       </c>
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
@@ -7855,7 +7844,7 @@
       <c r="R78" s="28"/>
       <c r="S78" s="34"/>
       <c r="T78" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U78" s="35"/>
       <c r="V78" s="36"/>
@@ -7871,13 +7860,13 @@
         <v>72</v>
       </c>
       <c r="B79" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>300</v>
-      </c>
       <c r="D79" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
@@ -7890,10 +7879,10 @@
         <v>300</v>
       </c>
       <c r="M79" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="N79" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="N79" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
@@ -7901,7 +7890,7 @@
       <c r="R79" s="28"/>
       <c r="S79" s="34"/>
       <c r="T79" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U79" s="35"/>
       <c r="V79" s="36"/>
@@ -7917,13 +7906,13 @@
         <v>73</v>
       </c>
       <c r="B80" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>304</v>
-      </c>
       <c r="D80" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -7936,10 +7925,10 @@
         <v>301</v>
       </c>
       <c r="M80" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="N80" s="19" t="s">
         <v>305</v>
-      </c>
-      <c r="N80" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
@@ -7947,7 +7936,7 @@
       <c r="R80" s="28"/>
       <c r="S80" s="34"/>
       <c r="T80" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U80" s="35"/>
       <c r="V80" s="36"/>
@@ -7963,13 +7952,13 @@
         <v>74</v>
       </c>
       <c r="B81" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>308</v>
-      </c>
       <c r="D81" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
@@ -7982,10 +7971,10 @@
         <v>302</v>
       </c>
       <c r="M81" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="N81" s="19" t="s">
         <v>309</v>
-      </c>
-      <c r="N81" s="19" t="s">
-        <v>310</v>
       </c>
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
@@ -7993,7 +7982,7 @@
       <c r="R81" s="28"/>
       <c r="S81" s="34"/>
       <c r="T81" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U81" s="35"/>
       <c r="V81" s="36"/>
@@ -8009,13 +7998,13 @@
         <v>75</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C82" s="19" t="s">
-        <v>312</v>
-      </c>
       <c r="D82" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
@@ -8028,10 +8017,10 @@
         <v>303</v>
       </c>
       <c r="M82" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="N82" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="N82" s="19" t="s">
-        <v>314</v>
       </c>
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
@@ -8039,7 +8028,7 @@
       <c r="R82" s="28"/>
       <c r="S82" s="34"/>
       <c r="T82" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U82" s="35"/>
       <c r="V82" s="36"/>
@@ -8055,13 +8044,13 @@
         <v>76</v>
       </c>
       <c r="B83" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C83" s="19" t="s">
-        <v>316</v>
-      </c>
       <c r="D83" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
@@ -8074,10 +8063,10 @@
         <v>304</v>
       </c>
       <c r="M83" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="N83" s="19" t="s">
         <v>317</v>
-      </c>
-      <c r="N83" s="19" t="s">
-        <v>318</v>
       </c>
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
@@ -8085,7 +8074,7 @@
       <c r="R83" s="28"/>
       <c r="S83" s="34"/>
       <c r="T83" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U83" s="35"/>
       <c r="V83" s="36"/>
@@ -8101,13 +8090,13 @@
         <v>77</v>
       </c>
       <c r="B84" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="C84" s="19" t="s">
-        <v>320</v>
-      </c>
       <c r="D84" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
@@ -8120,10 +8109,10 @@
         <v>305</v>
       </c>
       <c r="M84" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="N84" s="19" t="s">
         <v>321</v>
-      </c>
-      <c r="N84" s="19" t="s">
-        <v>322</v>
       </c>
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
@@ -8131,7 +8120,7 @@
       <c r="R84" s="28"/>
       <c r="S84" s="34"/>
       <c r="T84" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U84" s="35"/>
       <c r="V84" s="36"/>
@@ -8147,13 +8136,13 @@
         <v>78</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>324</v>
-      </c>
       <c r="D85" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
@@ -8166,10 +8155,10 @@
         <v>306</v>
       </c>
       <c r="M85" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="N85" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="N85" s="19" t="s">
-        <v>326</v>
       </c>
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
@@ -8177,7 +8166,7 @@
       <c r="R85" s="28"/>
       <c r="S85" s="34"/>
       <c r="T85" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U85" s="35"/>
       <c r="V85" s="36"/>
@@ -8193,13 +8182,13 @@
         <v>79</v>
       </c>
       <c r="B86" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>328</v>
-      </c>
       <c r="D86" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
@@ -8212,10 +8201,10 @@
         <v>307</v>
       </c>
       <c r="M86" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="N86" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="N86" s="19" t="s">
-        <v>330</v>
       </c>
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
@@ -8223,7 +8212,7 @@
       <c r="R86" s="28"/>
       <c r="S86" s="34"/>
       <c r="T86" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U86" s="35"/>
       <c r="V86" s="36"/>
@@ -8239,13 +8228,13 @@
         <v>80</v>
       </c>
       <c r="B87" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="D87" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
@@ -8258,10 +8247,10 @@
         <v>308</v>
       </c>
       <c r="M87" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="N87" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="N87" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
@@ -8269,7 +8258,7 @@
       <c r="R87" s="28"/>
       <c r="S87" s="34"/>
       <c r="T87" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U87" s="35"/>
       <c r="V87" s="36"/>
@@ -8285,13 +8274,13 @@
         <v>81</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="19" t="s">
-        <v>336</v>
-      </c>
       <c r="D88" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
@@ -8304,10 +8293,10 @@
         <v>309</v>
       </c>
       <c r="M88" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="N88" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="N88" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
@@ -8315,7 +8304,7 @@
       <c r="R88" s="28"/>
       <c r="S88" s="34"/>
       <c r="T88" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U88" s="35"/>
       <c r="V88" s="36"/>
@@ -8331,13 +8320,13 @@
         <v>82</v>
       </c>
       <c r="B89" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C89" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C89" s="19" t="s">
-        <v>340</v>
-      </c>
       <c r="D89" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
@@ -8350,10 +8339,10 @@
         <v>310</v>
       </c>
       <c r="M89" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="N89" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="N89" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
@@ -8361,7 +8350,7 @@
       <c r="R89" s="28"/>
       <c r="S89" s="34"/>
       <c r="T89" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U89" s="35"/>
       <c r="V89" s="36"/>
@@ -8377,13 +8366,13 @@
         <v>83</v>
       </c>
       <c r="B90" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>344</v>
-      </c>
       <c r="D90" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
@@ -8396,10 +8385,10 @@
         <v>311</v>
       </c>
       <c r="M90" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="N90" s="19" t="s">
         <v>345</v>
-      </c>
-      <c r="N90" s="19" t="s">
-        <v>346</v>
       </c>
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
@@ -8407,7 +8396,7 @@
       <c r="R90" s="28"/>
       <c r="S90" s="34"/>
       <c r="T90" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U90" s="35"/>
       <c r="V90" s="36"/>
@@ -8423,13 +8412,13 @@
         <v>84</v>
       </c>
       <c r="B91" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>348</v>
-      </c>
       <c r="D91" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
@@ -8442,10 +8431,10 @@
         <v>312</v>
       </c>
       <c r="M91" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="N91" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="N91" s="19" t="s">
-        <v>350</v>
       </c>
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
@@ -8453,7 +8442,7 @@
       <c r="R91" s="28"/>
       <c r="S91" s="34"/>
       <c r="T91" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U91" s="35"/>
       <c r="V91" s="36"/>
@@ -8469,13 +8458,13 @@
         <v>85</v>
       </c>
       <c r="B92" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C92" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="D92" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92" s="21"/>
       <c r="F92" s="21"/>
@@ -8488,10 +8477,10 @@
         <v>313</v>
       </c>
       <c r="M92" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="N92" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="N92" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
@@ -8499,7 +8488,7 @@
       <c r="R92" s="28"/>
       <c r="S92" s="34"/>
       <c r="T92" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U92" s="35"/>
       <c r="V92" s="36"/>
@@ -8515,13 +8504,13 @@
         <v>86</v>
       </c>
       <c r="B93" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C93" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>356</v>
-      </c>
       <c r="D93" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
@@ -8534,10 +8523,10 @@
         <v>314</v>
       </c>
       <c r="M93" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="N93" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="N93" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
@@ -8545,7 +8534,7 @@
       <c r="R93" s="28"/>
       <c r="S93" s="34"/>
       <c r="T93" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U93" s="35"/>
       <c r="V93" s="36"/>
@@ -8561,13 +8550,13 @@
         <v>87</v>
       </c>
       <c r="B94" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="C94" s="19" t="s">
-        <v>360</v>
-      </c>
       <c r="D94" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
@@ -8580,10 +8569,10 @@
         <v>315</v>
       </c>
       <c r="M94" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="N94" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="N94" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
@@ -8591,7 +8580,7 @@
       <c r="R94" s="28"/>
       <c r="S94" s="34"/>
       <c r="T94" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U94" s="35"/>
       <c r="V94" s="36"/>
@@ -8607,13 +8596,13 @@
         <v>88</v>
       </c>
       <c r="B95" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C95" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>364</v>
-      </c>
       <c r="D95" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
@@ -8626,10 +8615,10 @@
         <v>316</v>
       </c>
       <c r="M95" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="N95" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="N95" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
@@ -8637,7 +8626,7 @@
       <c r="R95" s="28"/>
       <c r="S95" s="34"/>
       <c r="T95" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U95" s="35"/>
       <c r="V95" s="36"/>
@@ -8653,13 +8642,13 @@
         <v>89</v>
       </c>
       <c r="B96" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>368</v>
-      </c>
       <c r="D96" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
@@ -8672,10 +8661,10 @@
         <v>317</v>
       </c>
       <c r="M96" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="N96" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="N96" s="19" t="s">
-        <v>370</v>
       </c>
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
@@ -8683,7 +8672,7 @@
       <c r="R96" s="28"/>
       <c r="S96" s="34"/>
       <c r="T96" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U96" s="35"/>
       <c r="V96" s="36"/>
@@ -8699,13 +8688,13 @@
         <v>90</v>
       </c>
       <c r="B97" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>372</v>
-      </c>
       <c r="D97" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
@@ -8718,10 +8707,10 @@
         <v>318</v>
       </c>
       <c r="M97" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="N97" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="N97" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
@@ -8729,7 +8718,7 @@
       <c r="R97" s="28"/>
       <c r="S97" s="34"/>
       <c r="T97" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U97" s="35"/>
       <c r="V97" s="36"/>
@@ -8745,13 +8734,13 @@
         <v>91</v>
       </c>
       <c r="B98" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>376</v>
-      </c>
       <c r="D98" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
@@ -8764,10 +8753,10 @@
         <v>319</v>
       </c>
       <c r="M98" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="N98" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="N98" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
@@ -8775,7 +8764,7 @@
       <c r="R98" s="28"/>
       <c r="S98" s="34"/>
       <c r="T98" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U98" s="35"/>
       <c r="V98" s="36"/>
@@ -8791,13 +8780,13 @@
         <v>92</v>
       </c>
       <c r="B99" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C99" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>380</v>
-      </c>
       <c r="D99" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
@@ -8810,10 +8799,10 @@
         <v>320</v>
       </c>
       <c r="M99" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="N99" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="N99" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
@@ -8821,7 +8810,7 @@
       <c r="R99" s="28"/>
       <c r="S99" s="34"/>
       <c r="T99" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U99" s="35"/>
       <c r="V99" s="36"/>
@@ -8837,13 +8826,13 @@
         <v>93</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
@@ -8856,10 +8845,10 @@
         <v>321</v>
       </c>
       <c r="M100" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="N100" s="19" t="s">
         <v>384</v>
-      </c>
-      <c r="N100" s="19" t="s">
-        <v>385</v>
       </c>
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
@@ -8867,7 +8856,7 @@
       <c r="R100" s="28"/>
       <c r="S100" s="34"/>
       <c r="T100" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U100" s="35"/>
       <c r="V100" s="36"/>
@@ -8883,13 +8872,13 @@
         <v>94</v>
       </c>
       <c r="B101" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>387</v>
-      </c>
       <c r="D101" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
@@ -8902,10 +8891,10 @@
         <v>322</v>
       </c>
       <c r="M101" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="N101" s="19" t="s">
         <v>388</v>
-      </c>
-      <c r="N101" s="19" t="s">
-        <v>389</v>
       </c>
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
@@ -8913,7 +8902,7 @@
       <c r="R101" s="28"/>
       <c r="S101" s="34"/>
       <c r="T101" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U101" s="35"/>
       <c r="V101" s="36"/>
@@ -8929,13 +8918,13 @@
         <v>95</v>
       </c>
       <c r="B102" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>391</v>
-      </c>
       <c r="D102" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
@@ -8948,10 +8937,10 @@
         <v>323</v>
       </c>
       <c r="M102" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="N102" s="19" t="s">
         <v>392</v>
-      </c>
-      <c r="N102" s="19" t="s">
-        <v>393</v>
       </c>
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
@@ -8959,7 +8948,7 @@
       <c r="R102" s="28"/>
       <c r="S102" s="34"/>
       <c r="T102" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U102" s="35"/>
       <c r="V102" s="36"/>
@@ -8975,13 +8964,13 @@
         <v>96</v>
       </c>
       <c r="B103" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C103" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>395</v>
-      </c>
       <c r="D103" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
@@ -8994,10 +8983,10 @@
         <v>324</v>
       </c>
       <c r="M103" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="N103" s="19" t="s">
         <v>396</v>
-      </c>
-      <c r="N103" s="19" t="s">
-        <v>397</v>
       </c>
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
@@ -9005,7 +8994,7 @@
       <c r="R103" s="28"/>
       <c r="S103" s="34"/>
       <c r="T103" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U103" s="35"/>
       <c r="V103" s="36"/>
@@ -9021,13 +9010,13 @@
         <v>97</v>
       </c>
       <c r="B104" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C104" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="C104" s="19" t="s">
-        <v>399</v>
-      </c>
       <c r="D104" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
@@ -9040,10 +9029,10 @@
         <v>325</v>
       </c>
       <c r="M104" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="N104" s="19" t="s">
         <v>400</v>
-      </c>
-      <c r="N104" s="19" t="s">
-        <v>401</v>
       </c>
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
@@ -9051,7 +9040,7 @@
       <c r="R104" s="28"/>
       <c r="S104" s="34"/>
       <c r="T104" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U104" s="35"/>
       <c r="V104" s="36"/>
@@ -9067,13 +9056,13 @@
         <v>98</v>
       </c>
       <c r="B105" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="C105" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="C105" s="19" t="s">
-        <v>403</v>
-      </c>
       <c r="D105" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
@@ -9086,10 +9075,10 @@
         <v>326</v>
       </c>
       <c r="M105" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N105" s="19" t="s">
         <v>404</v>
-      </c>
-      <c r="N105" s="19" t="s">
-        <v>405</v>
       </c>
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
@@ -9097,7 +9086,7 @@
       <c r="R105" s="28"/>
       <c r="S105" s="34"/>
       <c r="T105" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U105" s="35"/>
       <c r="V105" s="36"/>
@@ -9113,13 +9102,13 @@
         <v>99</v>
       </c>
       <c r="B106" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="C106" s="19" t="s">
-        <v>407</v>
-      </c>
       <c r="D106" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
@@ -9132,10 +9121,10 @@
         <v>327</v>
       </c>
       <c r="M106" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="N106" s="19" t="s">
         <v>408</v>
-      </c>
-      <c r="N106" s="19" t="s">
-        <v>409</v>
       </c>
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
@@ -9143,7 +9132,7 @@
       <c r="R106" s="28"/>
       <c r="S106" s="34"/>
       <c r="T106" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U106" s="35"/>
       <c r="V106" s="36"/>
@@ -9159,13 +9148,13 @@
         <v>100</v>
       </c>
       <c r="B107" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>411</v>
-      </c>
       <c r="D107" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
@@ -9178,10 +9167,10 @@
         <v>328</v>
       </c>
       <c r="M107" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="N107" s="19" t="s">
         <v>412</v>
-      </c>
-      <c r="N107" s="19" t="s">
-        <v>413</v>
       </c>
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
@@ -9189,7 +9178,7 @@
       <c r="R107" s="28"/>
       <c r="S107" s="34"/>
       <c r="T107" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U107" s="35"/>
       <c r="V107" s="36"/>
@@ -9205,13 +9194,13 @@
         <v>101</v>
       </c>
       <c r="B108" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="C108" s="19" t="s">
-        <v>415</v>
-      </c>
       <c r="D108" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
@@ -9224,10 +9213,10 @@
         <v>329</v>
       </c>
       <c r="M108" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="N108" s="19" t="s">
         <v>416</v>
-      </c>
-      <c r="N108" s="19" t="s">
-        <v>417</v>
       </c>
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
@@ -9235,7 +9224,7 @@
       <c r="R108" s="28"/>
       <c r="S108" s="34"/>
       <c r="T108" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U108" s="35"/>
       <c r="V108" s="36"/>
@@ -9251,13 +9240,13 @@
         <v>102</v>
       </c>
       <c r="B109" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>419</v>
-      </c>
       <c r="D109" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
@@ -9270,10 +9259,10 @@
         <v>330</v>
       </c>
       <c r="M109" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="N109" s="19" t="s">
         <v>420</v>
-      </c>
-      <c r="N109" s="19" t="s">
-        <v>421</v>
       </c>
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
@@ -9281,7 +9270,7 @@
       <c r="R109" s="28"/>
       <c r="S109" s="34"/>
       <c r="T109" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U109" s="35"/>
       <c r="V109" s="36"/>
@@ -9297,13 +9286,13 @@
         <v>103</v>
       </c>
       <c r="B110" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="C110" s="19" t="s">
-        <v>423</v>
-      </c>
       <c r="D110" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
@@ -9316,10 +9305,10 @@
         <v>331</v>
       </c>
       <c r="M110" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="N110" s="19" t="s">
         <v>424</v>
-      </c>
-      <c r="N110" s="19" t="s">
-        <v>425</v>
       </c>
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
@@ -9327,7 +9316,7 @@
       <c r="R110" s="28"/>
       <c r="S110" s="34"/>
       <c r="T110" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U110" s="35"/>
       <c r="V110" s="36"/>
@@ -9343,13 +9332,13 @@
         <v>104</v>
       </c>
       <c r="B111" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>427</v>
-      </c>
       <c r="D111" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21"/>
@@ -9362,10 +9351,10 @@
         <v>332</v>
       </c>
       <c r="M111" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="N111" s="19" t="s">
         <v>428</v>
-      </c>
-      <c r="N111" s="19" t="s">
-        <v>429</v>
       </c>
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
@@ -9373,7 +9362,7 @@
       <c r="R111" s="28"/>
       <c r="S111" s="34"/>
       <c r="T111" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U111" s="35"/>
       <c r="V111" s="36"/>
@@ -9389,13 +9378,13 @@
         <v>105</v>
       </c>
       <c r="B112" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="C112" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>431</v>
-      </c>
       <c r="D112" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
@@ -9408,10 +9397,10 @@
         <v>333</v>
       </c>
       <c r="M112" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="N112" s="19" t="s">
         <v>432</v>
-      </c>
-      <c r="N112" s="19" t="s">
-        <v>433</v>
       </c>
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
@@ -9419,7 +9408,7 @@
       <c r="R112" s="28"/>
       <c r="S112" s="34"/>
       <c r="T112" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U112" s="35"/>
       <c r="V112" s="36"/>
@@ -9435,13 +9424,13 @@
         <v>106</v>
       </c>
       <c r="B113" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="C113" s="19" t="s">
-        <v>435</v>
-      </c>
       <c r="D113" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
@@ -9454,10 +9443,10 @@
         <v>334</v>
       </c>
       <c r="M113" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
@@ -9465,7 +9454,7 @@
       <c r="R113" s="28"/>
       <c r="S113" s="34"/>
       <c r="T113" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U113" s="35"/>
       <c r="V113" s="36"/>
@@ -9481,13 +9470,13 @@
         <v>107</v>
       </c>
       <c r="B114" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="C114" s="19" t="s">
-        <v>438</v>
-      </c>
       <c r="D114" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
@@ -9500,10 +9489,10 @@
         <v>335</v>
       </c>
       <c r="M114" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="N114" s="19" t="s">
         <v>439</v>
-      </c>
-      <c r="N114" s="19" t="s">
-        <v>440</v>
       </c>
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
@@ -9511,7 +9500,7 @@
       <c r="R114" s="28"/>
       <c r="S114" s="34"/>
       <c r="T114" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U114" s="35"/>
       <c r="V114" s="36"/>
@@ -9527,13 +9516,13 @@
         <v>108</v>
       </c>
       <c r="B115" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C115" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>442</v>
-      </c>
       <c r="D115" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
@@ -9546,10 +9535,10 @@
         <v>336</v>
       </c>
       <c r="M115" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="N115" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="N115" s="19" t="s">
-        <v>444</v>
       </c>
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
@@ -9557,7 +9546,7 @@
       <c r="R115" s="28"/>
       <c r="S115" s="34"/>
       <c r="T115" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U115" s="35"/>
       <c r="V115" s="36"/>
@@ -9573,13 +9562,13 @@
         <v>109</v>
       </c>
       <c r="B116" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C116" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="C116" s="19" t="s">
-        <v>446</v>
-      </c>
       <c r="D116" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E116" s="21"/>
       <c r="F116" s="21"/>
@@ -9592,10 +9581,10 @@
         <v>337</v>
       </c>
       <c r="M116" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="N116" s="19" t="s">
         <v>447</v>
-      </c>
-      <c r="N116" s="19" t="s">
-        <v>448</v>
       </c>
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
@@ -9603,7 +9592,7 @@
       <c r="R116" s="28"/>
       <c r="S116" s="34"/>
       <c r="T116" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U116" s="35"/>
       <c r="V116" s="36"/>
@@ -9619,13 +9608,13 @@
         <v>110</v>
       </c>
       <c r="B117" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C117" s="19" t="s">
-        <v>450</v>
-      </c>
       <c r="D117" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117" s="21"/>
       <c r="F117" s="21"/>
@@ -9638,10 +9627,10 @@
         <v>338</v>
       </c>
       <c r="M117" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="N117" s="19" t="s">
         <v>451</v>
-      </c>
-      <c r="N117" s="19" t="s">
-        <v>452</v>
       </c>
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
@@ -9649,7 +9638,7 @@
       <c r="R117" s="28"/>
       <c r="S117" s="34"/>
       <c r="T117" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U117" s="35"/>
       <c r="V117" s="36"/>
@@ -9665,13 +9654,13 @@
         <v>111</v>
       </c>
       <c r="B118" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C118" s="19" t="s">
-        <v>454</v>
-      </c>
       <c r="D118" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
@@ -9684,10 +9673,10 @@
         <v>339</v>
       </c>
       <c r="M118" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="N118" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="N118" s="19" t="s">
-        <v>456</v>
       </c>
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
@@ -9695,7 +9684,7 @@
       <c r="R118" s="28"/>
       <c r="S118" s="34"/>
       <c r="T118" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U118" s="35"/>
       <c r="V118" s="36"/>
@@ -9711,13 +9700,13 @@
         <v>112</v>
       </c>
       <c r="B119" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>458</v>
-      </c>
       <c r="D119" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -9730,10 +9719,10 @@
         <v>340</v>
       </c>
       <c r="M119" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="N119" s="19" t="s">
         <v>459</v>
-      </c>
-      <c r="N119" s="19" t="s">
-        <v>460</v>
       </c>
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
@@ -9741,7 +9730,7 @@
       <c r="R119" s="28"/>
       <c r="S119" s="34"/>
       <c r="T119" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U119" s="35"/>
       <c r="V119" s="36"/>
@@ -9757,13 +9746,13 @@
         <v>113</v>
       </c>
       <c r="B120" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C120" s="19" t="s">
-        <v>462</v>
-      </c>
       <c r="D120" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
@@ -9776,10 +9765,10 @@
         <v>341</v>
       </c>
       <c r="M120" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="N120" s="19" t="s">
         <v>463</v>
-      </c>
-      <c r="N120" s="19" t="s">
-        <v>464</v>
       </c>
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
@@ -9787,7 +9776,7 @@
       <c r="R120" s="28"/>
       <c r="S120" s="34"/>
       <c r="T120" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U120" s="35"/>
       <c r="V120" s="36"/>
@@ -9803,13 +9792,13 @@
         <v>114</v>
       </c>
       <c r="B121" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C121" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>466</v>
-      </c>
       <c r="D121" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
@@ -9822,10 +9811,10 @@
         <v>342</v>
       </c>
       <c r="M121" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="N121" s="19" t="s">
         <v>467</v>
-      </c>
-      <c r="N121" s="19" t="s">
-        <v>468</v>
       </c>
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
@@ -9833,7 +9822,7 @@
       <c r="R121" s="28"/>
       <c r="S121" s="34"/>
       <c r="T121" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U121" s="35"/>
       <c r="V121" s="36"/>
@@ -9849,13 +9838,13 @@
         <v>115</v>
       </c>
       <c r="B122" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C122" s="19" t="s">
-        <v>470</v>
-      </c>
       <c r="D122" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E122" s="21"/>
       <c r="F122" s="21"/>
@@ -9868,10 +9857,10 @@
         <v>343</v>
       </c>
       <c r="M122" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="N122" s="19" t="s">
         <v>471</v>
-      </c>
-      <c r="N122" s="19" t="s">
-        <v>472</v>
       </c>
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
@@ -9879,7 +9868,7 @@
       <c r="R122" s="28"/>
       <c r="S122" s="34"/>
       <c r="T122" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U122" s="35"/>
       <c r="V122" s="36"/>
@@ -9895,13 +9884,13 @@
         <v>116</v>
       </c>
       <c r="B123" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="C123" s="19" t="s">
-        <v>474</v>
-      </c>
       <c r="D123" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123" s="21"/>
       <c r="F123" s="21"/>
@@ -9914,10 +9903,10 @@
         <v>344</v>
       </c>
       <c r="M123" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="N123" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="N123" s="19" t="s">
-        <v>476</v>
       </c>
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
@@ -9925,7 +9914,7 @@
       <c r="R123" s="28"/>
       <c r="S123" s="34"/>
       <c r="T123" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U123" s="35"/>
       <c r="V123" s="36"/>
@@ -9941,13 +9930,13 @@
         <v>117</v>
       </c>
       <c r="B124" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C124" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C124" s="19" t="s">
-        <v>478</v>
-      </c>
       <c r="D124" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
@@ -9960,10 +9949,10 @@
         <v>345</v>
       </c>
       <c r="M124" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="N124" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="N124" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
@@ -9971,7 +9960,7 @@
       <c r="R124" s="28"/>
       <c r="S124" s="34"/>
       <c r="T124" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U124" s="35"/>
       <c r="V124" s="36"/>
@@ -9987,13 +9976,13 @@
         <v>118</v>
       </c>
       <c r="B125" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>482</v>
-      </c>
       <c r="D125" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
@@ -10006,10 +9995,10 @@
         <v>346</v>
       </c>
       <c r="M125" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="N125" s="19" t="s">
         <v>483</v>
-      </c>
-      <c r="N125" s="19" t="s">
-        <v>484</v>
       </c>
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
@@ -10017,7 +10006,7 @@
       <c r="R125" s="28"/>
       <c r="S125" s="34"/>
       <c r="T125" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U125" s="35"/>
       <c r="V125" s="36"/>
@@ -10033,13 +10022,13 @@
         <v>119</v>
       </c>
       <c r="B126" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C126" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C126" s="19" t="s">
-        <v>486</v>
-      </c>
       <c r="D126" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
@@ -10052,10 +10041,10 @@
         <v>347</v>
       </c>
       <c r="M126" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="N126" s="19" t="s">
         <v>487</v>
-      </c>
-      <c r="N126" s="19" t="s">
-        <v>488</v>
       </c>
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
@@ -10063,7 +10052,7 @@
       <c r="R126" s="28"/>
       <c r="S126" s="34"/>
       <c r="T126" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U126" s="35"/>
       <c r="V126" s="36"/>
@@ -10079,13 +10068,13 @@
         <v>120</v>
       </c>
       <c r="B127" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="C127" s="19" t="s">
-        <v>490</v>
-      </c>
       <c r="D127" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
@@ -10098,10 +10087,10 @@
         <v>348</v>
       </c>
       <c r="M127" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="N127" s="19" t="s">
         <v>491</v>
-      </c>
-      <c r="N127" s="19" t="s">
-        <v>492</v>
       </c>
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
@@ -10109,7 +10098,7 @@
       <c r="R127" s="28"/>
       <c r="S127" s="34"/>
       <c r="T127" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U127" s="35"/>
       <c r="V127" s="36"/>
@@ -10125,13 +10114,13 @@
         <v>121</v>
       </c>
       <c r="B128" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>494</v>
-      </c>
       <c r="D128" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128" s="21"/>
       <c r="F128" s="21"/>
@@ -10144,10 +10133,10 @@
         <v>349</v>
       </c>
       <c r="M128" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="N128" s="19" t="s">
         <v>495</v>
-      </c>
-      <c r="N128" s="19" t="s">
-        <v>496</v>
       </c>
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
@@ -10155,7 +10144,7 @@
       <c r="R128" s="28"/>
       <c r="S128" s="34"/>
       <c r="T128" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U128" s="35"/>
       <c r="V128" s="36"/>
@@ -10171,13 +10160,13 @@
         <v>122</v>
       </c>
       <c r="B129" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C129" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="C129" s="19" t="s">
-        <v>498</v>
-      </c>
       <c r="D129" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
@@ -10190,10 +10179,10 @@
         <v>350</v>
       </c>
       <c r="M129" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="N129" s="19" t="s">
         <v>499</v>
-      </c>
-      <c r="N129" s="19" t="s">
-        <v>500</v>
       </c>
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
@@ -10201,7 +10190,7 @@
       <c r="R129" s="28"/>
       <c r="S129" s="34"/>
       <c r="T129" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U129" s="35"/>
       <c r="V129" s="36"/>
@@ -10217,13 +10206,13 @@
         <v>123</v>
       </c>
       <c r="B130" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>502</v>
-      </c>
       <c r="D130" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
@@ -10236,10 +10225,10 @@
         <v>351</v>
       </c>
       <c r="M130" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="N130" s="19" t="s">
         <v>503</v>
-      </c>
-      <c r="N130" s="19" t="s">
-        <v>504</v>
       </c>
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
@@ -10247,7 +10236,7 @@
       <c r="R130" s="28"/>
       <c r="S130" s="34"/>
       <c r="T130" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U130" s="35"/>
       <c r="V130" s="36"/>
@@ -10263,13 +10252,13 @@
         <v>124</v>
       </c>
       <c r="B131" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C131" s="19" t="s">
-        <v>506</v>
-      </c>
       <c r="D131" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
@@ -10282,10 +10271,10 @@
         <v>352</v>
       </c>
       <c r="M131" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="N131" s="19" t="s">
         <v>507</v>
-      </c>
-      <c r="N131" s="19" t="s">
-        <v>508</v>
       </c>
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
@@ -10293,7 +10282,7 @@
       <c r="R131" s="28"/>
       <c r="S131" s="34"/>
       <c r="T131" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U131" s="35"/>
       <c r="V131" s="36"/>
@@ -10309,13 +10298,13 @@
         <v>125</v>
       </c>
       <c r="B132" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="C132" s="19" t="s">
-        <v>510</v>
-      </c>
       <c r="D132" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
@@ -10328,10 +10317,10 @@
         <v>353</v>
       </c>
       <c r="M132" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="N132" s="19" t="s">
         <v>511</v>
-      </c>
-      <c r="N132" s="19" t="s">
-        <v>512</v>
       </c>
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
@@ -10339,7 +10328,7 @@
       <c r="R132" s="28"/>
       <c r="S132" s="34"/>
       <c r="T132" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U132" s="35"/>
       <c r="V132" s="36"/>
@@ -10355,13 +10344,13 @@
         <v>126</v>
       </c>
       <c r="B133" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="C133" s="19" t="s">
-        <v>514</v>
-      </c>
       <c r="D133" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
@@ -10374,10 +10363,10 @@
         <v>354</v>
       </c>
       <c r="M133" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="N133" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="N133" s="19" t="s">
-        <v>516</v>
       </c>
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
@@ -10385,7 +10374,7 @@
       <c r="R133" s="28"/>
       <c r="S133" s="34"/>
       <c r="T133" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U133" s="35"/>
       <c r="V133" s="36"/>
@@ -10401,13 +10390,13 @@
         <v>127</v>
       </c>
       <c r="B134" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C134" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="C134" s="19" t="s">
-        <v>518</v>
-      </c>
       <c r="D134" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E134" s="21"/>
       <c r="F134" s="21"/>
@@ -10420,10 +10409,10 @@
         <v>355</v>
       </c>
       <c r="M134" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="N134" s="19" t="s">
         <v>519</v>
-      </c>
-      <c r="N134" s="19" t="s">
-        <v>520</v>
       </c>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
@@ -10431,7 +10420,7 @@
       <c r="R134" s="28"/>
       <c r="S134" s="34"/>
       <c r="T134" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U134" s="35"/>
       <c r="V134" s="36"/>
@@ -10447,13 +10436,13 @@
         <v>128</v>
       </c>
       <c r="B135" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C135" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="C135" s="19" t="s">
-        <v>522</v>
-      </c>
       <c r="D135" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135" s="21"/>
       <c r="F135" s="21"/>
@@ -10466,10 +10455,10 @@
         <v>356</v>
       </c>
       <c r="M135" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="N135" s="19" t="s">
         <v>523</v>
-      </c>
-      <c r="N135" s="19" t="s">
-        <v>524</v>
       </c>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
@@ -10477,7 +10466,7 @@
       <c r="R135" s="28"/>
       <c r="S135" s="34"/>
       <c r="T135" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U135" s="35"/>
       <c r="V135" s="36"/>
@@ -10493,13 +10482,13 @@
         <v>129</v>
       </c>
       <c r="B136" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="C136" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="C136" s="19" t="s">
-        <v>526</v>
-      </c>
       <c r="D136" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E136" s="21"/>
       <c r="F136" s="21"/>
@@ -10512,10 +10501,10 @@
         <v>357</v>
       </c>
       <c r="M136" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="N136" s="19" t="s">
         <v>527</v>
-      </c>
-      <c r="N136" s="19" t="s">
-        <v>528</v>
       </c>
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
@@ -10523,7 +10512,7 @@
       <c r="R136" s="28"/>
       <c r="S136" s="34"/>
       <c r="T136" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U136" s="35"/>
       <c r="V136" s="36"/>
@@ -10539,13 +10528,13 @@
         <v>130</v>
       </c>
       <c r="B137" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C137" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C137" s="19" t="s">
-        <v>530</v>
-      </c>
       <c r="D137" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="21"/>
@@ -10558,10 +10547,10 @@
         <v>358</v>
       </c>
       <c r="M137" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="N137" s="19" t="s">
         <v>531</v>
-      </c>
-      <c r="N137" s="19" t="s">
-        <v>532</v>
       </c>
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
@@ -10569,7 +10558,7 @@
       <c r="R137" s="28"/>
       <c r="S137" s="34"/>
       <c r="T137" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U137" s="35"/>
       <c r="V137" s="36"/>
@@ -10585,13 +10574,13 @@
         <v>131</v>
       </c>
       <c r="B138" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="C138" s="19" t="s">
-        <v>534</v>
-      </c>
       <c r="D138" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
@@ -10604,10 +10593,10 @@
         <v>359</v>
       </c>
       <c r="M138" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="N138" s="19" t="s">
         <v>535</v>
-      </c>
-      <c r="N138" s="19" t="s">
-        <v>536</v>
       </c>
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
@@ -10615,7 +10604,7 @@
       <c r="R138" s="28"/>
       <c r="S138" s="34"/>
       <c r="T138" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U138" s="35"/>
       <c r="V138" s="36"/>
@@ -10631,13 +10620,13 @@
         <v>132</v>
       </c>
       <c r="B139" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="C139" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="C139" s="19" t="s">
-        <v>538</v>
-      </c>
       <c r="D139" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139" s="21"/>
       <c r="F139" s="21"/>
@@ -10650,10 +10639,10 @@
         <v>360</v>
       </c>
       <c r="M139" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="N139" s="19" t="s">
         <v>539</v>
-      </c>
-      <c r="N139" s="19" t="s">
-        <v>540</v>
       </c>
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
@@ -10661,7 +10650,7 @@
       <c r="R139" s="28"/>
       <c r="S139" s="34"/>
       <c r="T139" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U139" s="35"/>
       <c r="V139" s="36"/>
@@ -10677,13 +10666,13 @@
         <v>133</v>
       </c>
       <c r="B140" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="C140" s="19" t="s">
-        <v>542</v>
-      </c>
       <c r="D140" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
@@ -10696,10 +10685,10 @@
         <v>361</v>
       </c>
       <c r="M140" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="N140" s="19" t="s">
         <v>543</v>
-      </c>
-      <c r="N140" s="19" t="s">
-        <v>544</v>
       </c>
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
@@ -10707,7 +10696,7 @@
       <c r="R140" s="28"/>
       <c r="S140" s="34"/>
       <c r="T140" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U140" s="35"/>
       <c r="V140" s="36"/>
@@ -10723,13 +10712,13 @@
         <v>134</v>
       </c>
       <c r="B141" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="C141" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>546</v>
-      </c>
       <c r="D141" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141" s="21"/>
       <c r="F141" s="21"/>
@@ -10742,10 +10731,10 @@
         <v>362</v>
       </c>
       <c r="M141" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="N141" s="19" t="s">
         <v>547</v>
-      </c>
-      <c r="N141" s="19" t="s">
-        <v>548</v>
       </c>
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
@@ -10753,7 +10742,7 @@
       <c r="R141" s="28"/>
       <c r="S141" s="34"/>
       <c r="T141" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U141" s="35"/>
       <c r="V141" s="36"/>
@@ -10769,13 +10758,13 @@
         <v>135</v>
       </c>
       <c r="B142" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C142" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="C142" s="19" t="s">
-        <v>550</v>
-      </c>
       <c r="D142" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
@@ -10788,10 +10777,10 @@
         <v>363</v>
       </c>
       <c r="M142" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="N142" s="19" t="s">
         <v>551</v>
-      </c>
-      <c r="N142" s="19" t="s">
-        <v>552</v>
       </c>
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
@@ -10799,7 +10788,7 @@
       <c r="R142" s="28"/>
       <c r="S142" s="34"/>
       <c r="T142" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U142" s="35"/>
       <c r="V142" s="36"/>
@@ -10815,13 +10804,13 @@
         <v>136</v>
       </c>
       <c r="B143" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C143" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="C143" s="19" t="s">
-        <v>554</v>
-      </c>
       <c r="D143" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
@@ -10834,10 +10823,10 @@
         <v>364</v>
       </c>
       <c r="M143" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="N143" s="19" t="s">
         <v>555</v>
-      </c>
-      <c r="N143" s="19" t="s">
-        <v>556</v>
       </c>
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
@@ -10845,7 +10834,7 @@
       <c r="R143" s="28"/>
       <c r="S143" s="34"/>
       <c r="T143" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U143" s="35"/>
       <c r="V143" s="36"/>
@@ -10861,13 +10850,13 @@
         <v>137</v>
       </c>
       <c r="B144" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="C144" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="C144" s="19" t="s">
-        <v>558</v>
-      </c>
       <c r="D144" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144" s="21"/>
       <c r="F144" s="21"/>
@@ -10880,10 +10869,10 @@
         <v>365</v>
       </c>
       <c r="M144" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="N144" s="19" t="s">
         <v>559</v>
-      </c>
-      <c r="N144" s="19" t="s">
-        <v>560</v>
       </c>
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
@@ -10891,7 +10880,7 @@
       <c r="R144" s="28"/>
       <c r="S144" s="34"/>
       <c r="T144" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U144" s="35"/>
       <c r="V144" s="36"/>
@@ -10907,13 +10896,13 @@
         <v>138</v>
       </c>
       <c r="B145" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C145" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="C145" s="19" t="s">
-        <v>562</v>
-      </c>
       <c r="D145" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
@@ -10926,10 +10915,10 @@
         <v>366</v>
       </c>
       <c r="M145" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="N145" s="19" t="s">
         <v>563</v>
-      </c>
-      <c r="N145" s="19" t="s">
-        <v>564</v>
       </c>
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
@@ -10937,7 +10926,7 @@
       <c r="R145" s="28"/>
       <c r="S145" s="34"/>
       <c r="T145" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U145" s="35"/>
       <c r="V145" s="36"/>
@@ -10953,13 +10942,13 @@
         <v>139</v>
       </c>
       <c r="B146" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="C146" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>566</v>
-      </c>
       <c r="D146" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
@@ -10972,10 +10961,10 @@
         <v>367</v>
       </c>
       <c r="M146" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="N146" s="19" t="s">
         <v>567</v>
-      </c>
-      <c r="N146" s="19" t="s">
-        <v>568</v>
       </c>
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
@@ -10983,7 +10972,7 @@
       <c r="R146" s="28"/>
       <c r="S146" s="34"/>
       <c r="T146" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U146" s="35"/>
       <c r="V146" s="36"/>
@@ -10999,13 +10988,13 @@
         <v>140</v>
       </c>
       <c r="B147" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="C147" s="19" t="s">
-        <v>570</v>
-      </c>
       <c r="D147" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
@@ -11018,10 +11007,10 @@
         <v>368</v>
       </c>
       <c r="M147" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="N147" s="19" t="s">
         <v>571</v>
-      </c>
-      <c r="N147" s="19" t="s">
-        <v>572</v>
       </c>
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
@@ -11029,7 +11018,7 @@
       <c r="R147" s="28"/>
       <c r="S147" s="34"/>
       <c r="T147" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U147" s="35"/>
       <c r="V147" s="36"/>
@@ -11045,13 +11034,13 @@
         <v>141</v>
       </c>
       <c r="B148" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C148" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="C148" s="19" t="s">
-        <v>574</v>
-      </c>
       <c r="D148" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
@@ -11064,10 +11053,10 @@
         <v>369</v>
       </c>
       <c r="M148" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="N148" s="19" t="s">
         <v>575</v>
-      </c>
-      <c r="N148" s="19" t="s">
-        <v>576</v>
       </c>
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
@@ -11075,7 +11064,7 @@
       <c r="R148" s="28"/>
       <c r="S148" s="34"/>
       <c r="T148" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U148" s="35"/>
       <c r="V148" s="36"/>
@@ -11091,13 +11080,13 @@
         <v>142</v>
       </c>
       <c r="B149" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="C149" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="C149" s="19" t="s">
-        <v>578</v>
-      </c>
       <c r="D149" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
@@ -11110,10 +11099,10 @@
         <v>370</v>
       </c>
       <c r="M149" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="N149" s="19" t="s">
         <v>579</v>
-      </c>
-      <c r="N149" s="19" t="s">
-        <v>580</v>
       </c>
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
@@ -11121,7 +11110,7 @@
       <c r="R149" s="28"/>
       <c r="S149" s="34"/>
       <c r="T149" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U149" s="35"/>
       <c r="V149" s="36"/>
@@ -11137,13 +11126,13 @@
         <v>143</v>
       </c>
       <c r="B150" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="C150" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="C150" s="19" t="s">
-        <v>582</v>
-      </c>
       <c r="D150" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
@@ -11156,10 +11145,10 @@
         <v>371</v>
       </c>
       <c r="M150" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="N150" s="19" t="s">
         <v>583</v>
-      </c>
-      <c r="N150" s="19" t="s">
-        <v>584</v>
       </c>
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
@@ -11167,7 +11156,7 @@
       <c r="R150" s="28"/>
       <c r="S150" s="34"/>
       <c r="T150" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U150" s="35"/>
       <c r="V150" s="36"/>
@@ -11183,13 +11172,13 @@
         <v>144</v>
       </c>
       <c r="B151" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C151" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="C151" s="19" t="s">
-        <v>586</v>
-      </c>
       <c r="D151" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
@@ -11202,10 +11191,10 @@
         <v>372</v>
       </c>
       <c r="M151" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="N151" s="19" t="s">
         <v>587</v>
-      </c>
-      <c r="N151" s="19" t="s">
-        <v>588</v>
       </c>
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
@@ -11213,7 +11202,7 @@
       <c r="R151" s="28"/>
       <c r="S151" s="34"/>
       <c r="T151" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U151" s="35"/>
       <c r="V151" s="36"/>
@@ -11229,13 +11218,13 @@
         <v>145</v>
       </c>
       <c r="B152" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C152" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="C152" s="19" t="s">
-        <v>590</v>
-      </c>
       <c r="D152" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
@@ -11248,10 +11237,10 @@
         <v>373</v>
       </c>
       <c r="M152" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="N152" s="19" t="s">
         <v>591</v>
-      </c>
-      <c r="N152" s="19" t="s">
-        <v>592</v>
       </c>
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
@@ -11259,7 +11248,7 @@
       <c r="R152" s="28"/>
       <c r="S152" s="34"/>
       <c r="T152" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U152" s="35"/>
       <c r="V152" s="36"/>
@@ -11275,13 +11264,13 @@
         <v>146</v>
       </c>
       <c r="B153" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="C153" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>594</v>
-      </c>
       <c r="D153" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
@@ -11294,10 +11283,10 @@
         <v>374</v>
       </c>
       <c r="M153" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="N153" s="19" t="s">
         <v>595</v>
-      </c>
-      <c r="N153" s="19" t="s">
-        <v>596</v>
       </c>
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
@@ -11305,7 +11294,7 @@
       <c r="R153" s="28"/>
       <c r="S153" s="34"/>
       <c r="T153" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U153" s="35"/>
       <c r="V153" s="36"/>
@@ -11321,13 +11310,13 @@
         <v>147</v>
       </c>
       <c r="B154" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="C154" s="19" t="s">
-        <v>598</v>
-      </c>
       <c r="D154" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
@@ -11340,10 +11329,10 @@
         <v>375</v>
       </c>
       <c r="M154" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="N154" s="19" t="s">
         <v>599</v>
-      </c>
-      <c r="N154" s="19" t="s">
-        <v>600</v>
       </c>
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
@@ -11351,7 +11340,7 @@
       <c r="R154" s="28"/>
       <c r="S154" s="34"/>
       <c r="T154" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U154" s="35"/>
       <c r="V154" s="36"/>
@@ -11367,13 +11356,13 @@
         <v>148</v>
       </c>
       <c r="B155" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C155" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="C155" s="19" t="s">
-        <v>602</v>
-      </c>
       <c r="D155" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
@@ -11386,10 +11375,10 @@
         <v>376</v>
       </c>
       <c r="M155" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="N155" s="19" t="s">
         <v>603</v>
-      </c>
-      <c r="N155" s="19" t="s">
-        <v>604</v>
       </c>
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
@@ -11397,7 +11386,7 @@
       <c r="R155" s="28"/>
       <c r="S155" s="34"/>
       <c r="T155" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U155" s="35"/>
       <c r="V155" s="36"/>
@@ -11413,13 +11402,13 @@
         <v>149</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
@@ -11432,10 +11421,10 @@
         <v>377</v>
       </c>
       <c r="M156" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="N156" s="19" t="s">
         <v>606</v>
-      </c>
-      <c r="N156" s="19" t="s">
-        <v>607</v>
       </c>
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
@@ -11443,7 +11432,7 @@
       <c r="R156" s="28"/>
       <c r="S156" s="34"/>
       <c r="T156" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U156" s="35"/>
       <c r="V156" s="36"/>
@@ -11459,13 +11448,13 @@
         <v>150</v>
       </c>
       <c r="B157" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C157" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="C157" s="19" t="s">
-        <v>609</v>
-      </c>
       <c r="D157" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
@@ -11478,10 +11467,10 @@
         <v>378</v>
       </c>
       <c r="M157" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="N157" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="N157" s="19" t="s">
-        <v>611</v>
       </c>
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
@@ -11489,7 +11478,7 @@
       <c r="R157" s="28"/>
       <c r="S157" s="34"/>
       <c r="T157" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U157" s="35"/>
       <c r="V157" s="36"/>
@@ -11505,13 +11494,13 @@
         <v>151</v>
       </c>
       <c r="B158" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="C158" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="C158" s="19" t="s">
-        <v>613</v>
-      </c>
       <c r="D158" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
@@ -11524,10 +11513,10 @@
         <v>379</v>
       </c>
       <c r="M158" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="N158" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="N158" s="19" t="s">
-        <v>615</v>
       </c>
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
@@ -11535,7 +11524,7 @@
       <c r="R158" s="28"/>
       <c r="S158" s="34"/>
       <c r="T158" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U158" s="35"/>
       <c r="V158" s="36"/>
@@ -11551,13 +11540,13 @@
         <v>152</v>
       </c>
       <c r="B159" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C159" s="19" t="s">
         <v>616</v>
       </c>
-      <c r="C159" s="19" t="s">
-        <v>617</v>
-      </c>
       <c r="D159" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
@@ -11570,10 +11559,10 @@
         <v>380</v>
       </c>
       <c r="M159" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="N159" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="N159" s="19" t="s">
-        <v>619</v>
       </c>
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
@@ -11581,7 +11570,7 @@
       <c r="R159" s="28"/>
       <c r="S159" s="34"/>
       <c r="T159" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U159" s="35"/>
       <c r="V159" s="36"/>
@@ -11597,13 +11586,13 @@
         <v>153</v>
       </c>
       <c r="B160" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="C160" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C160" s="19" t="s">
-        <v>621</v>
-      </c>
       <c r="D160" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
@@ -11616,10 +11605,10 @@
         <v>381</v>
       </c>
       <c r="M160" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="N160" s="19" t="s">
         <v>622</v>
-      </c>
-      <c r="N160" s="19" t="s">
-        <v>623</v>
       </c>
       <c r="O160" s="28"/>
       <c r="P160" s="28"/>
@@ -11627,7 +11616,7 @@
       <c r="R160" s="28"/>
       <c r="S160" s="34"/>
       <c r="T160" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U160" s="35"/>
       <c r="V160" s="36"/>
@@ -11643,13 +11632,13 @@
         <v>154</v>
       </c>
       <c r="B161" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="C161" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="C161" s="19" t="s">
-        <v>625</v>
-      </c>
       <c r="D161" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
@@ -11662,10 +11651,10 @@
         <v>382</v>
       </c>
       <c r="M161" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="N161" s="19" t="s">
         <v>626</v>
-      </c>
-      <c r="N161" s="19" t="s">
-        <v>627</v>
       </c>
       <c r="O161" s="28"/>
       <c r="P161" s="28"/>
@@ -11673,7 +11662,7 @@
       <c r="R161" s="28"/>
       <c r="S161" s="34"/>
       <c r="T161" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U161" s="35"/>
       <c r="V161" s="36"/>
@@ -11689,13 +11678,13 @@
         <v>155</v>
       </c>
       <c r="B162" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="C162" s="19" t="s">
-        <v>629</v>
-      </c>
       <c r="D162" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
@@ -11708,10 +11697,10 @@
         <v>383</v>
       </c>
       <c r="M162" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="N162" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="N162" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="O162" s="28"/>
       <c r="P162" s="28"/>
@@ -11719,7 +11708,7 @@
       <c r="R162" s="28"/>
       <c r="S162" s="34"/>
       <c r="T162" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U162" s="35"/>
       <c r="V162" s="36"/>
@@ -11735,13 +11724,13 @@
         <v>156</v>
       </c>
       <c r="B163" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="C163" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="C163" s="19" t="s">
-        <v>633</v>
-      </c>
       <c r="D163" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E163" s="21"/>
       <c r="F163" s="21"/>
@@ -11754,10 +11743,10 @@
         <v>384</v>
       </c>
       <c r="M163" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="N163" s="19" t="s">
         <v>634</v>
-      </c>
-      <c r="N163" s="19" t="s">
-        <v>635</v>
       </c>
       <c r="O163" s="28"/>
       <c r="P163" s="28"/>
@@ -11765,7 +11754,7 @@
       <c r="R163" s="28"/>
       <c r="S163" s="34"/>
       <c r="T163" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U163" s="35"/>
       <c r="V163" s="36"/>
@@ -11781,13 +11770,13 @@
         <v>157</v>
       </c>
       <c r="B164" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="C164" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C164" s="19" t="s">
-        <v>637</v>
-      </c>
       <c r="D164" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
@@ -11800,10 +11789,10 @@
         <v>385</v>
       </c>
       <c r="M164" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="N164" s="19" t="s">
         <v>638</v>
-      </c>
-      <c r="N164" s="19" t="s">
-        <v>639</v>
       </c>
       <c r="O164" s="28"/>
       <c r="P164" s="28"/>
@@ -11811,7 +11800,7 @@
       <c r="R164" s="28"/>
       <c r="S164" s="34"/>
       <c r="T164" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U164" s="35"/>
       <c r="V164" s="36"/>
@@ -11827,13 +11816,13 @@
         <v>158</v>
       </c>
       <c r="B165" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="C165" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="C165" s="19" t="s">
-        <v>641</v>
-      </c>
       <c r="D165" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E165" s="21"/>
       <c r="F165" s="21"/>
@@ -11846,10 +11835,10 @@
         <v>386</v>
       </c>
       <c r="M165" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="N165" s="19" t="s">
         <v>642</v>
-      </c>
-      <c r="N165" s="19" t="s">
-        <v>643</v>
       </c>
       <c r="O165" s="28"/>
       <c r="P165" s="28"/>
@@ -11857,7 +11846,7 @@
       <c r="R165" s="28"/>
       <c r="S165" s="34"/>
       <c r="T165" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U165" s="35"/>
       <c r="V165" s="36"/>
@@ -11873,13 +11862,13 @@
         <v>159</v>
       </c>
       <c r="B166" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="C166" s="19" t="s">
-        <v>645</v>
-      </c>
       <c r="D166" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E166" s="21"/>
       <c r="F166" s="21"/>
@@ -11892,10 +11881,10 @@
         <v>387</v>
       </c>
       <c r="M166" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="N166" s="19" t="s">
         <v>646</v>
-      </c>
-      <c r="N166" s="19" t="s">
-        <v>647</v>
       </c>
       <c r="O166" s="28"/>
       <c r="P166" s="28"/>
@@ -11903,7 +11892,7 @@
       <c r="R166" s="28"/>
       <c r="S166" s="34"/>
       <c r="T166" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U166" s="35"/>
       <c r="V166" s="36"/>
@@ -11919,13 +11908,13 @@
         <v>160</v>
       </c>
       <c r="B167" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C167" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="C167" s="19" t="s">
-        <v>649</v>
-      </c>
       <c r="D167" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
@@ -11938,10 +11927,10 @@
         <v>388</v>
       </c>
       <c r="M167" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="N167" s="19" t="s">
         <v>650</v>
-      </c>
-      <c r="N167" s="19" t="s">
-        <v>651</v>
       </c>
       <c r="O167" s="28"/>
       <c r="P167" s="28"/>
@@ -11949,7 +11938,7 @@
       <c r="R167" s="28"/>
       <c r="S167" s="34"/>
       <c r="T167" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U167" s="35"/>
       <c r="V167" s="36"/>
@@ -11965,13 +11954,13 @@
         <v>161</v>
       </c>
       <c r="B168" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C168" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="C168" s="19" t="s">
-        <v>653</v>
-      </c>
       <c r="D168" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
@@ -11984,10 +11973,10 @@
         <v>389</v>
       </c>
       <c r="M168" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="N168" s="19" t="s">
         <v>654</v>
-      </c>
-      <c r="N168" s="19" t="s">
-        <v>655</v>
       </c>
       <c r="O168" s="28"/>
       <c r="P168" s="28"/>
@@ -11995,7 +11984,7 @@
       <c r="R168" s="28"/>
       <c r="S168" s="34"/>
       <c r="T168" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U168" s="35"/>
       <c r="V168" s="36"/>
@@ -12011,13 +12000,13 @@
         <v>162</v>
       </c>
       <c r="B169" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="C169" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="C169" s="19" t="s">
-        <v>657</v>
-      </c>
       <c r="D169" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
@@ -12030,10 +12019,10 @@
         <v>390</v>
       </c>
       <c r="M169" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="N169" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="N169" s="19" t="s">
-        <v>659</v>
       </c>
       <c r="O169" s="28"/>
       <c r="P169" s="28"/>
@@ -12041,7 +12030,7 @@
       <c r="R169" s="28"/>
       <c r="S169" s="34"/>
       <c r="T169" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U169" s="35"/>
       <c r="V169" s="36"/>
@@ -12057,13 +12046,13 @@
         <v>163</v>
       </c>
       <c r="B170" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="C170" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="C170" s="19" t="s">
-        <v>661</v>
-      </c>
       <c r="D170" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
@@ -12076,10 +12065,10 @@
         <v>391</v>
       </c>
       <c r="M170" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="N170" s="19" t="s">
         <v>662</v>
-      </c>
-      <c r="N170" s="19" t="s">
-        <v>663</v>
       </c>
       <c r="O170" s="28"/>
       <c r="P170" s="28"/>
@@ -12087,7 +12076,7 @@
       <c r="R170" s="28"/>
       <c r="S170" s="34"/>
       <c r="T170" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U170" s="35"/>
       <c r="V170" s="36"/>
@@ -12103,13 +12092,13 @@
         <v>164</v>
       </c>
       <c r="B171" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="C171" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="C171" s="19" t="s">
-        <v>665</v>
-      </c>
       <c r="D171" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
@@ -12122,10 +12111,10 @@
         <v>392</v>
       </c>
       <c r="M171" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="N171" s="19" t="s">
         <v>666</v>
-      </c>
-      <c r="N171" s="19" t="s">
-        <v>667</v>
       </c>
       <c r="O171" s="28"/>
       <c r="P171" s="28"/>
@@ -12133,7 +12122,7 @@
       <c r="R171" s="28"/>
       <c r="S171" s="34"/>
       <c r="T171" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U171" s="35"/>
       <c r="V171" s="36"/>
@@ -12149,13 +12138,13 @@
         <v>165</v>
       </c>
       <c r="B172" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="C172" s="19" t="s">
         <v>668</v>
       </c>
-      <c r="C172" s="19" t="s">
-        <v>669</v>
-      </c>
       <c r="D172" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
@@ -12168,10 +12157,10 @@
         <v>393</v>
       </c>
       <c r="M172" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="N172" s="19" t="s">
         <v>670</v>
-      </c>
-      <c r="N172" s="19" t="s">
-        <v>671</v>
       </c>
       <c r="O172" s="28"/>
       <c r="P172" s="28"/>
@@ -12179,7 +12168,7 @@
       <c r="R172" s="28"/>
       <c r="S172" s="34"/>
       <c r="T172" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U172" s="35"/>
       <c r="V172" s="36"/>
@@ -12195,13 +12184,13 @@
         <v>166</v>
       </c>
       <c r="B173" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C173" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="C173" s="19" t="s">
-        <v>673</v>
-      </c>
       <c r="D173" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
@@ -12214,10 +12203,10 @@
         <v>394</v>
       </c>
       <c r="M173" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="N173" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="N173" s="19" t="s">
-        <v>675</v>
       </c>
       <c r="O173" s="28"/>
       <c r="P173" s="28"/>
@@ -12225,7 +12214,7 @@
       <c r="R173" s="28"/>
       <c r="S173" s="34"/>
       <c r="T173" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U173" s="35"/>
       <c r="V173" s="36"/>
@@ -12241,13 +12230,13 @@
         <v>167</v>
       </c>
       <c r="B174" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="C174" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="C174" s="19" t="s">
-        <v>677</v>
-      </c>
       <c r="D174" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
@@ -12260,10 +12249,10 @@
         <v>395</v>
       </c>
       <c r="M174" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="N174" s="19" t="s">
         <v>678</v>
-      </c>
-      <c r="N174" s="19" t="s">
-        <v>679</v>
       </c>
       <c r="O174" s="28"/>
       <c r="P174" s="28"/>
@@ -12271,7 +12260,7 @@
       <c r="R174" s="28"/>
       <c r="S174" s="34"/>
       <c r="T174" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U174" s="35"/>
       <c r="V174" s="36"/>
@@ -12287,13 +12276,13 @@
         <v>168</v>
       </c>
       <c r="B175" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="C175" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="C175" s="19" t="s">
-        <v>681</v>
-      </c>
       <c r="D175" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
@@ -12306,10 +12295,10 @@
         <v>396</v>
       </c>
       <c r="M175" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="N175" s="19" t="s">
         <v>682</v>
-      </c>
-      <c r="N175" s="19" t="s">
-        <v>683</v>
       </c>
       <c r="O175" s="28"/>
       <c r="P175" s="28"/>
@@ -12317,7 +12306,7 @@
       <c r="R175" s="28"/>
       <c r="S175" s="34"/>
       <c r="T175" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U175" s="35"/>
       <c r="V175" s="36"/>
@@ -12333,13 +12322,13 @@
         <v>169</v>
       </c>
       <c r="B176" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="C176" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="C176" s="19" t="s">
-        <v>685</v>
-      </c>
       <c r="D176" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
@@ -12352,10 +12341,10 @@
         <v>397</v>
       </c>
       <c r="M176" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="N176" s="19" t="s">
         <v>686</v>
-      </c>
-      <c r="N176" s="19" t="s">
-        <v>687</v>
       </c>
       <c r="O176" s="28"/>
       <c r="P176" s="28"/>
@@ -12363,7 +12352,7 @@
       <c r="R176" s="28"/>
       <c r="S176" s="34"/>
       <c r="T176" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U176" s="35"/>
       <c r="V176" s="36"/>
@@ -12379,13 +12368,13 @@
         <v>170</v>
       </c>
       <c r="B177" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="C177" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="C177" s="19" t="s">
-        <v>689</v>
-      </c>
       <c r="D177" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
@@ -12398,10 +12387,10 @@
         <v>398</v>
       </c>
       <c r="M177" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="N177" s="19" t="s">
         <v>690</v>
-      </c>
-      <c r="N177" s="19" t="s">
-        <v>691</v>
       </c>
       <c r="O177" s="28"/>
       <c r="P177" s="28"/>
@@ -12409,7 +12398,7 @@
       <c r="R177" s="28"/>
       <c r="S177" s="34"/>
       <c r="T177" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U177" s="35"/>
       <c r="V177" s="36"/>
@@ -12425,13 +12414,13 @@
         <v>171</v>
       </c>
       <c r="B178" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="C178" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="C178" s="19" t="s">
-        <v>693</v>
-      </c>
       <c r="D178" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
@@ -12444,10 +12433,10 @@
         <v>399</v>
       </c>
       <c r="M178" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="N178" s="19" t="s">
         <v>694</v>
-      </c>
-      <c r="N178" s="19" t="s">
-        <v>695</v>
       </c>
       <c r="O178" s="28"/>
       <c r="P178" s="28"/>
@@ -12455,7 +12444,7 @@
       <c r="R178" s="28"/>
       <c r="S178" s="34"/>
       <c r="T178" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U178" s="35"/>
       <c r="V178" s="36"/>
@@ -12471,13 +12460,13 @@
         <v>172</v>
       </c>
       <c r="B179" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="C179" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="C179" s="19" t="s">
-        <v>697</v>
-      </c>
       <c r="D179" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
@@ -12490,10 +12479,10 @@
         <v>400</v>
       </c>
       <c r="M179" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="N179" s="19" t="s">
         <v>698</v>
-      </c>
-      <c r="N179" s="19" t="s">
-        <v>699</v>
       </c>
       <c r="O179" s="28"/>
       <c r="P179" s="28"/>
@@ -12501,7 +12490,7 @@
       <c r="R179" s="28"/>
       <c r="S179" s="34"/>
       <c r="T179" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U179" s="35"/>
       <c r="V179" s="36"/>
@@ -12517,13 +12506,13 @@
         <v>173</v>
       </c>
       <c r="B180" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="C180" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="C180" s="19" t="s">
-        <v>701</v>
-      </c>
       <c r="D180" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
@@ -12536,10 +12525,10 @@
         <v>401</v>
       </c>
       <c r="M180" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="N180" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="N180" s="19" t="s">
-        <v>703</v>
       </c>
       <c r="O180" s="28"/>
       <c r="P180" s="28"/>
@@ -12547,7 +12536,7 @@
       <c r="R180" s="28"/>
       <c r="S180" s="34"/>
       <c r="T180" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U180" s="35"/>
       <c r="V180" s="36"/>
@@ -12563,13 +12552,13 @@
         <v>174</v>
       </c>
       <c r="B181" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="C181" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="C181" s="19" t="s">
-        <v>705</v>
-      </c>
       <c r="D181" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E181" s="21"/>
       <c r="F181" s="21"/>
@@ -12582,10 +12571,10 @@
         <v>402</v>
       </c>
       <c r="M181" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="N181" s="42" t="s">
         <v>706</v>
-      </c>
-      <c r="N181" s="42" t="s">
-        <v>707</v>
       </c>
       <c r="O181" s="43"/>
       <c r="P181" s="43"/>
@@ -12593,7 +12582,7 @@
       <c r="R181" s="43"/>
       <c r="S181" s="47"/>
       <c r="T181" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U181" s="49"/>
       <c r="V181" s="50"/>
@@ -12609,13 +12598,13 @@
         <v>175</v>
       </c>
       <c r="B182" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C182" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="C182" s="19" t="s">
-        <v>709</v>
-      </c>
       <c r="D182" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
@@ -12630,13 +12619,13 @@
         <v>176</v>
       </c>
       <c r="B183" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="C183" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="C183" s="19" t="s">
-        <v>711</v>
-      </c>
       <c r="D183" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
@@ -12668,13 +12657,13 @@
         <v>177</v>
       </c>
       <c r="B184" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="C184" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="C184" s="19" t="s">
-        <v>713</v>
-      </c>
       <c r="D184" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
@@ -12684,7 +12673,7 @@
       <c r="J184" s="21"/>
       <c r="K184" s="7"/>
       <c r="L184" s="45" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M184" s="46"/>
       <c r="N184" s="46"/>
@@ -12708,13 +12697,13 @@
         <v>178</v>
       </c>
       <c r="B185" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C185" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>716</v>
-      </c>
       <c r="D185" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
@@ -12724,13 +12713,13 @@
       <c r="J185" s="21"/>
       <c r="K185" s="7"/>
       <c r="L185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M185" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M185" s="8" t="s">
+      <c r="N185" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="N185" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
@@ -12738,17 +12727,17 @@
       <c r="R185" s="11"/>
       <c r="S185" s="12"/>
       <c r="T185" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U185" s="11"/>
       <c r="V185" s="12"/>
       <c r="W185" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X185" s="30"/>
       <c r="Y185" s="38"/>
       <c r="Z185" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA185" s="30"/>
       <c r="AB185" s="38"/>
@@ -12758,13 +12747,13 @@
         <v>179</v>
       </c>
       <c r="B186" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="C186" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="C186" s="19" t="s">
-        <v>718</v>
-      </c>
       <c r="D186" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
@@ -12785,22 +12774,22 @@
       <c r="U186" s="25"/>
       <c r="V186" s="31"/>
       <c r="W186" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="X186" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="X186" s="33" t="s">
+      <c r="Y186" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Y186" s="39" t="s">
-        <v>13</v>
-      </c>
       <c r="Z186" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA186" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AA186" s="33" t="s">
+      <c r="AB186" s="39" t="s">
         <v>12</v>
-      </c>
-      <c r="AB186" s="39" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:28">
@@ -12808,13 +12797,13 @@
         <v>180</v>
       </c>
       <c r="B187" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="C187" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="C187" s="19" t="s">
-        <v>720</v>
-      </c>
       <c r="D187" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
@@ -12827,10 +12816,10 @@
         <v>1</v>
       </c>
       <c r="M187" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="N187" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="N187" s="19" t="s">
-        <v>722</v>
       </c>
       <c r="O187" s="28"/>
       <c r="P187" s="28"/>
@@ -12838,7 +12827,7 @@
       <c r="R187" s="28"/>
       <c r="S187" s="34"/>
       <c r="T187" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U187" s="35"/>
       <c r="V187" s="36"/>
@@ -12854,13 +12843,13 @@
         <v>181</v>
       </c>
       <c r="B188" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="C188" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="C188" s="19" t="s">
-        <v>725</v>
-      </c>
       <c r="D188" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E188" s="21"/>
       <c r="F188" s="21"/>
@@ -12873,10 +12862,10 @@
         <v>2</v>
       </c>
       <c r="M188" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="N188" s="19" t="s">
         <v>726</v>
-      </c>
-      <c r="N188" s="19" t="s">
-        <v>727</v>
       </c>
       <c r="O188" s="28"/>
       <c r="P188" s="28"/>
@@ -12884,7 +12873,7 @@
       <c r="R188" s="28"/>
       <c r="S188" s="34"/>
       <c r="T188" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U188" s="35"/>
       <c r="V188" s="36"/>
@@ -12900,13 +12889,13 @@
         <v>182</v>
       </c>
       <c r="B189" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="C189" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="C189" s="19" t="s">
-        <v>729</v>
-      </c>
       <c r="D189" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E189" s="21"/>
       <c r="F189" s="21"/>
@@ -12919,10 +12908,10 @@
         <v>3</v>
       </c>
       <c r="M189" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="N189" s="19" t="s">
         <v>730</v>
-      </c>
-      <c r="N189" s="19" t="s">
-        <v>731</v>
       </c>
       <c r="O189" s="28"/>
       <c r="P189" s="28"/>
@@ -12930,7 +12919,7 @@
       <c r="R189" s="28"/>
       <c r="S189" s="34"/>
       <c r="T189" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U189" s="35"/>
       <c r="V189" s="36"/>
@@ -12946,13 +12935,13 @@
         <v>183</v>
       </c>
       <c r="B190" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="C190" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="C190" s="19" t="s">
-        <v>733</v>
-      </c>
       <c r="D190" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190" s="21"/>
       <c r="F190" s="21"/>
@@ -12965,10 +12954,10 @@
         <v>4</v>
       </c>
       <c r="M190" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="N190" s="19" t="s">
         <v>734</v>
-      </c>
-      <c r="N190" s="19" t="s">
-        <v>735</v>
       </c>
       <c r="O190" s="28"/>
       <c r="P190" s="28"/>
@@ -12976,7 +12965,7 @@
       <c r="R190" s="28"/>
       <c r="S190" s="34"/>
       <c r="T190" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U190" s="35"/>
       <c r="V190" s="36"/>
@@ -12992,13 +12981,13 @@
         <v>184</v>
       </c>
       <c r="B191" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="C191" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="C191" s="19" t="s">
-        <v>737</v>
-      </c>
       <c r="D191" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E191" s="21"/>
       <c r="F191" s="21"/>
@@ -13011,10 +13000,10 @@
         <v>5</v>
       </c>
       <c r="M191" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="N191" s="19" t="s">
         <v>738</v>
-      </c>
-      <c r="N191" s="19" t="s">
-        <v>739</v>
       </c>
       <c r="O191" s="28"/>
       <c r="P191" s="28"/>
@@ -13022,7 +13011,7 @@
       <c r="R191" s="28"/>
       <c r="S191" s="34"/>
       <c r="T191" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U191" s="35"/>
       <c r="V191" s="36"/>
@@ -13038,13 +13027,13 @@
         <v>185</v>
       </c>
       <c r="B192" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="C192" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="C192" s="19" t="s">
-        <v>741</v>
-      </c>
       <c r="D192" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
@@ -13057,10 +13046,10 @@
         <v>6</v>
       </c>
       <c r="M192" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="N192" s="19" t="s">
         <v>742</v>
-      </c>
-      <c r="N192" s="19" t="s">
-        <v>743</v>
       </c>
       <c r="O192" s="28"/>
       <c r="P192" s="28"/>
@@ -13068,7 +13057,7 @@
       <c r="R192" s="28"/>
       <c r="S192" s="34"/>
       <c r="T192" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U192" s="35"/>
       <c r="V192" s="36"/>
@@ -13084,13 +13073,13 @@
         <v>186</v>
       </c>
       <c r="B193" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="C193" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="C193" s="19" t="s">
-        <v>745</v>
-      </c>
       <c r="D193" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
@@ -13103,10 +13092,10 @@
         <v>7</v>
       </c>
       <c r="M193" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="N193" s="19" t="s">
         <v>746</v>
-      </c>
-      <c r="N193" s="19" t="s">
-        <v>747</v>
       </c>
       <c r="O193" s="28"/>
       <c r="P193" s="28"/>
@@ -13114,7 +13103,7 @@
       <c r="R193" s="28"/>
       <c r="S193" s="34"/>
       <c r="T193" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U193" s="35"/>
       <c r="V193" s="36"/>
@@ -13130,13 +13119,13 @@
         <v>187</v>
       </c>
       <c r="B194" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="C194" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="C194" s="19" t="s">
-        <v>749</v>
-      </c>
       <c r="D194" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
@@ -13149,10 +13138,10 @@
         <v>8</v>
       </c>
       <c r="M194" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="N194" s="19" t="s">
         <v>750</v>
-      </c>
-      <c r="N194" s="19" t="s">
-        <v>751</v>
       </c>
       <c r="O194" s="28"/>
       <c r="P194" s="28"/>
@@ -13160,7 +13149,7 @@
       <c r="R194" s="28"/>
       <c r="S194" s="34"/>
       <c r="T194" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U194" s="35"/>
       <c r="V194" s="36"/>
@@ -13176,13 +13165,13 @@
         <v>188</v>
       </c>
       <c r="B195" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="C195" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="C195" s="19" t="s">
-        <v>753</v>
-      </c>
       <c r="D195" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
@@ -13195,10 +13184,10 @@
         <v>9</v>
       </c>
       <c r="M195" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="N195" s="19" t="s">
         <v>754</v>
-      </c>
-      <c r="N195" s="19" t="s">
-        <v>755</v>
       </c>
       <c r="O195" s="28"/>
       <c r="P195" s="28"/>
@@ -13206,7 +13195,7 @@
       <c r="R195" s="28"/>
       <c r="S195" s="34"/>
       <c r="T195" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U195" s="35"/>
       <c r="V195" s="36"/>
@@ -13222,13 +13211,13 @@
         <v>189</v>
       </c>
       <c r="B196" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="C196" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="C196" s="19" t="s">
-        <v>757</v>
-      </c>
       <c r="D196" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E196" s="21"/>
       <c r="F196" s="21"/>
@@ -13241,10 +13230,10 @@
         <v>10</v>
       </c>
       <c r="M196" s="41" t="s">
+        <v>757</v>
+      </c>
+      <c r="N196" s="42" t="s">
         <v>758</v>
-      </c>
-      <c r="N196" s="42" t="s">
-        <v>759</v>
       </c>
       <c r="O196" s="43"/>
       <c r="P196" s="43"/>
@@ -13252,7 +13241,7 @@
       <c r="R196" s="43"/>
       <c r="S196" s="47"/>
       <c r="T196" s="48" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U196" s="49"/>
       <c r="V196" s="50"/>
@@ -13268,13 +13257,13 @@
         <v>190</v>
       </c>
       <c r="B197" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="C197" s="19" t="s">
         <v>760</v>
       </c>
-      <c r="C197" s="19" t="s">
-        <v>761</v>
-      </c>
       <c r="D197" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
@@ -13289,13 +13278,13 @@
         <v>191</v>
       </c>
       <c r="B198" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C198" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="C198" s="19" t="s">
-        <v>763</v>
-      </c>
       <c r="D198" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E198" s="21"/>
       <c r="F198" s="21"/>
@@ -13310,13 +13299,13 @@
         <v>192</v>
       </c>
       <c r="B199" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="C199" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="C199" s="19" t="s">
-        <v>765</v>
-      </c>
       <c r="D199" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
@@ -13348,13 +13337,13 @@
         <v>193</v>
       </c>
       <c r="B200" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C200" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="C200" s="19" t="s">
-        <v>767</v>
-      </c>
       <c r="D200" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
@@ -13364,36 +13353,36 @@
       <c r="J200" s="21"/>
       <c r="K200" s="7"/>
       <c r="L200" s="63" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M200" s="64"/>
       <c r="N200" s="65" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O200" s="64"/>
       <c r="P200" s="65" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q200" s="64"/>
       <c r="R200" s="65" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S200" s="64"/>
       <c r="T200" s="7"/>
       <c r="U200" s="63" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V200" s="64"/>
       <c r="W200" s="65" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="X200" s="64"/>
       <c r="Y200" s="65" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Z200" s="64"/>
       <c r="AA200" s="65" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AB200" s="64"/>
     </row>
@@ -13402,13 +13391,13 @@
         <v>194</v>
       </c>
       <c r="B201" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="C201" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="C201" s="19" t="s">
-        <v>774</v>
-      </c>
       <c r="D201" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
@@ -13418,7 +13407,7 @@
       <c r="J201" s="21"/>
       <c r="K201" s="7"/>
       <c r="L201" s="66" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M201" s="64"/>
       <c r="N201" s="67">
@@ -13426,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="O201" s="66" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P201" s="67">
         <f>SUM(F8:F235,X8:X181)</f>
@@ -13446,7 +13435,7 @@
       </c>
       <c r="T201" s="7"/>
       <c r="U201" s="66" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="V201" s="64"/>
       <c r="W201" s="67">
@@ -13479,13 +13468,13 @@
         <v>195</v>
       </c>
       <c r="B202" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C202" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="C202" s="19" t="s">
-        <v>778</v>
-      </c>
       <c r="D202" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
@@ -13495,7 +13484,7 @@
       <c r="J202" s="21"/>
       <c r="K202" s="7"/>
       <c r="L202" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M202" s="64"/>
       <c r="N202" s="67">
@@ -13503,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="66" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P202" s="67">
         <f>SUM(X187:X196)</f>
@@ -13523,7 +13512,7 @@
       </c>
       <c r="T202" s="7"/>
       <c r="U202" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V202" s="64"/>
       <c r="W202" s="67">
@@ -13556,13 +13545,13 @@
         <v>196</v>
       </c>
       <c r="B203" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="C203" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="C203" s="19" t="s">
-        <v>782</v>
-      </c>
       <c r="D203" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
@@ -13572,7 +13561,7 @@
       <c r="J203" s="21"/>
       <c r="K203" s="7"/>
       <c r="L203" s="68" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M203" s="64"/>
       <c r="N203" s="69">
@@ -13580,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="68" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P203" s="69">
         <f>SUM(P201:P202)</f>
@@ -13600,7 +13589,7 @@
       </c>
       <c r="T203" s="7"/>
       <c r="U203" s="68" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V203" s="64"/>
       <c r="W203" s="69">
@@ -13633,13 +13622,13 @@
         <v>197</v>
       </c>
       <c r="B204" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="C204" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="C204" s="19" t="s">
-        <v>786</v>
-      </c>
       <c r="D204" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
@@ -13669,13 +13658,13 @@
         <v>198</v>
       </c>
       <c r="B205" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C205" s="19" t="s">
         <v>787</v>
       </c>
-      <c r="C205" s="19" t="s">
-        <v>788</v>
-      </c>
       <c r="D205" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
@@ -13690,13 +13679,13 @@
         <v>199</v>
       </c>
       <c r="B206" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="C206" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="C206" s="19" t="s">
-        <v>790</v>
-      </c>
       <c r="D206" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
@@ -13711,13 +13700,13 @@
         <v>200</v>
       </c>
       <c r="B207" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C207" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="C207" s="19" t="s">
-        <v>792</v>
-      </c>
       <c r="D207" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E207" s="21"/>
       <c r="F207" s="21"/>
@@ -13732,13 +13721,13 @@
         <v>201</v>
       </c>
       <c r="B208" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="C208" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="C208" s="19" t="s">
-        <v>794</v>
-      </c>
       <c r="D208" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E208" s="21"/>
       <c r="F208" s="21"/>
@@ -13753,13 +13742,13 @@
         <v>202</v>
       </c>
       <c r="B209" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C209" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="C209" s="19" t="s">
-        <v>796</v>
-      </c>
       <c r="D209" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E209" s="21"/>
       <c r="F209" s="21"/>
@@ -13774,13 +13763,13 @@
         <v>203</v>
       </c>
       <c r="B210" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="C210" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="C210" s="19" t="s">
-        <v>798</v>
-      </c>
       <c r="D210" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
@@ -13790,7 +13779,7 @@
       <c r="J210" s="21"/>
       <c r="K210" s="7"/>
       <c r="L210" s="72" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M210" s="73"/>
       <c r="N210" s="73"/>
@@ -13798,7 +13787,7 @@
       <c r="P210" s="74"/>
       <c r="Q210" s="7"/>
       <c r="R210" s="72" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S210" s="73"/>
       <c r="T210" s="73"/>
@@ -13806,7 +13795,7 @@
       <c r="V210" s="74"/>
       <c r="W210" s="7"/>
       <c r="X210" s="72" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Y210" s="73"/>
       <c r="Z210" s="73"/>
@@ -13818,13 +13807,13 @@
         <v>204</v>
       </c>
       <c r="B211" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C211" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C211" s="19" t="s">
-        <v>803</v>
-      </c>
       <c r="D211" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
@@ -13856,13 +13845,13 @@
         <v>205</v>
       </c>
       <c r="B212" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="C212" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="C212" s="19" t="s">
-        <v>805</v>
-      </c>
       <c r="D212" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E212" s="21"/>
       <c r="F212" s="21"/>
@@ -13894,13 +13883,13 @@
         <v>206</v>
       </c>
       <c r="B213" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="C213" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="C213" s="19" t="s">
-        <v>807</v>
-      </c>
       <c r="D213" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
@@ -13932,13 +13921,13 @@
         <v>207</v>
       </c>
       <c r="B214" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="C214" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="C214" s="19" t="s">
-        <v>809</v>
-      </c>
       <c r="D214" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
@@ -13970,13 +13959,13 @@
         <v>208</v>
       </c>
       <c r="B215" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="C215" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>811</v>
-      </c>
       <c r="D215" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
@@ -14005,13 +13994,13 @@
         <v>209</v>
       </c>
       <c r="B216" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="C216" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="C216" s="19" t="s">
-        <v>813</v>
-      </c>
       <c r="D216" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
@@ -14020,14 +14009,10 @@
       <c r="I216" s="21"/>
       <c r="J216" s="21"/>
       <c r="K216" s="7"/>
-      <c r="L216" s="80" t="s">
-        <v>814</v>
-      </c>
+      <c r="L216" s="80"/>
       <c r="P216" s="81"/>
       <c r="Q216" s="7"/>
-      <c r="R216" s="80" t="s">
-        <v>815</v>
-      </c>
+      <c r="R216" s="80"/>
       <c r="V216" s="81"/>
       <c r="W216" s="7"/>
       <c r="X216" s="75"/>
@@ -14041,13 +14026,13 @@
         <v>210</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
@@ -14079,13 +14064,13 @@
         <v>211</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
@@ -14100,13 +14085,13 @@
         <v>212</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
@@ -14121,13 +14106,13 @@
         <v>213</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
@@ -14142,13 +14127,13 @@
         <v>214</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E221" s="21"/>
       <c r="F221" s="21"/>
@@ -14163,13 +14148,13 @@
         <v>215</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E222" s="21"/>
       <c r="F222" s="21"/>
@@ -14184,13 +14169,13 @@
         <v>216</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E223" s="21"/>
       <c r="F223" s="21"/>
@@ -14205,13 +14190,13 @@
         <v>217</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E224" s="21"/>
       <c r="F224" s="21"/>
@@ -14226,13 +14211,13 @@
         <v>218</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
@@ -14248,13 +14233,13 @@
         <v>219</v>
       </c>
       <c r="B226" s="18" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E226" s="21"/>
       <c r="F226" s="21"/>
@@ -14270,13 +14255,13 @@
         <v>220</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E227" s="21"/>
       <c r="F227" s="21"/>
@@ -14292,13 +14277,13 @@
         <v>221</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E228" s="21"/>
       <c r="F228" s="21"/>
@@ -14314,13 +14299,13 @@
         <v>222</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E229" s="21"/>
       <c r="F229" s="21"/>
@@ -14336,13 +14321,13 @@
         <v>223</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E230" s="21"/>
       <c r="F230" s="21"/>
@@ -14358,13 +14343,13 @@
         <v>224</v>
       </c>
       <c r="B231" s="18" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E231" s="21"/>
       <c r="F231" s="21"/>
@@ -14380,13 +14365,13 @@
         <v>225</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E232" s="21"/>
       <c r="F232" s="21"/>
@@ -14402,13 +14387,13 @@
         <v>226</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E233" s="21"/>
       <c r="F233" s="21"/>
@@ -14424,13 +14409,13 @@
         <v>227</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E234" s="21"/>
       <c r="F234" s="21"/>
@@ -14446,13 +14431,13 @@
         <v>228</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E235" s="21"/>
       <c r="F235" s="21"/>
@@ -42541,8 +42526,8 @@
     <hyperlink ref="B234" r:id="rId16" display="PBNI"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.275590551181102" right="0.276" top="0.0930956848030019" bottom="0.551181102362205" header="0" footer="0"/>
-  <pageSetup paperSize="10000" scale="46" fitToHeight="0" orientation="portrait"/>
+  <pageMargins left="0.279861111111111" right="0.279861111111111" top="0.0895833333333333" bottom="0.55" header="0" footer="0"/>
+  <pageSetup paperSize="14" scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>